--- a/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
+++ b/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
@@ -6081,9 +6081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -7364,7 +7364,9 @@
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="M42" s="5">
+        <v>2</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -7395,7 +7397,9 @@
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5">
+        <v>2</v>
+      </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>

--- a/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
+++ b/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5430" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5429" uniqueCount="1844">
   <si>
     <t xml:space="preserve">Field Name</t>
   </si>
@@ -3739,7 +3739,7 @@
     <t xml:space="preserve">number</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter the Ownership Percentage</t>
+    <t xml:space="preserve">Please enter valid Ownership Percentage</t>
   </si>
   <si>
     <t xml:space="preserve">antivirussoftware</t>
@@ -5565,7 +5565,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="DD/MMM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5613,12 +5613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -5659,7 +5653,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -5739,7 +5733,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5852,10 +5846,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5868,7 +5858,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5904,7 +5894,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5916,7 +5906,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5930,6 +5920,17 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 3" xfId="20"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5940,7 +5941,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -5971,7 +5972,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -6000,16 +6001,16 @@
   </sheetPr>
   <dimension ref="A1:S1529"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B697" activeCellId="0" sqref="B697"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="P1026" activeCellId="0" sqref="P1026"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.0234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22980,7 +22981,7 @@
         <v>45</v>
       </c>
       <c r="K651" s="17"/>
-      <c r="L651" s="28" t="s">
+      <c r="L651" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M651" s="17"/>
@@ -23163,7 +23164,7 @@
         <v>45</v>
       </c>
       <c r="K658" s="17"/>
-      <c r="L658" s="28" t="s">
+      <c r="L658" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M658" s="17"/>
@@ -23346,7 +23347,7 @@
         <v>45</v>
       </c>
       <c r="K665" s="17"/>
-      <c r="L665" s="28" t="s">
+      <c r="L665" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M665" s="17"/>
@@ -24166,7 +24167,7 @@
         <v>45</v>
       </c>
       <c r="K697" s="17"/>
-      <c r="L697" s="28" t="s">
+      <c r="L697" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M697" s="17"/>
@@ -24349,7 +24350,7 @@
         <v>45</v>
       </c>
       <c r="K704" s="17"/>
-      <c r="L704" s="28" t="s">
+      <c r="L704" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M704" s="17"/>
@@ -24457,7 +24458,7 @@
         <v>45</v>
       </c>
       <c r="K708" s="17"/>
-      <c r="L708" s="28" t="s">
+      <c r="L708" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M708" s="17"/>
@@ -24640,7 +24641,7 @@
         <v>45</v>
       </c>
       <c r="K715" s="17"/>
-      <c r="L715" s="28" t="s">
+      <c r="L715" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M715" s="17"/>
@@ -24823,7 +24824,7 @@
         <v>45</v>
       </c>
       <c r="K722" s="17"/>
-      <c r="L722" s="28" t="s">
+      <c r="L722" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M722" s="17"/>
@@ -25217,7 +25218,7 @@
         <v>45</v>
       </c>
       <c r="K736" s="17"/>
-      <c r="L736" s="28" t="s">
+      <c r="L736" s="17" t="s">
         <v>637</v>
       </c>
       <c r="M736" s="17"/>
@@ -25969,7 +25970,7 @@
       <c r="G770" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="I770" s="29"/>
+      <c r="I770" s="28"/>
     </row>
     <row r="771" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F771" s="0" t="s">
@@ -25997,29 +25998,29 @@
       </c>
     </row>
     <row r="773" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A773" s="29"/>
-      <c r="B773" s="29"/>
-      <c r="C773" s="29"/>
-      <c r="D773" s="29"/>
-      <c r="E773" s="29"/>
-      <c r="F773" s="29" t="s">
+      <c r="A773" s="28"/>
+      <c r="B773" s="28"/>
+      <c r="C773" s="28"/>
+      <c r="D773" s="28"/>
+      <c r="E773" s="28"/>
+      <c r="F773" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G773" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H773" s="29"/>
-      <c r="J773" s="29"/>
-      <c r="K773" s="29"/>
-      <c r="L773" s="29"/>
-      <c r="M773" s="29"/>
-      <c r="N773" s="29"/>
-      <c r="O773" s="29"/>
-      <c r="P773" s="29"/>
-      <c r="Q773" s="29"/>
+      <c r="G773" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H773" s="28"/>
+      <c r="J773" s="28"/>
+      <c r="K773" s="28"/>
+      <c r="L773" s="28"/>
+      <c r="M773" s="28"/>
+      <c r="N773" s="28"/>
+      <c r="O773" s="28"/>
+      <c r="P773" s="28"/>
+      <c r="Q773" s="28"/>
     </row>
     <row r="774" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B774" s="30"/>
+      <c r="B774" s="29"/>
       <c r="F774" s="0" t="s">
         <v>151</v>
       </c>
@@ -26219,7 +26220,7 @@
       </c>
     </row>
     <row r="791" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A791" s="29"/>
+      <c r="A791" s="28"/>
       <c r="F791" s="0" t="s">
         <v>159</v>
       </c>
@@ -26234,7 +26235,7 @@
       <c r="G792" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I792" s="29"/>
+      <c r="I792" s="28"/>
     </row>
     <row r="793" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
@@ -26255,7 +26256,7 @@
       <c r="L793" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O793" s="31" t="s">
+      <c r="O793" s="30" t="s">
         <v>638</v>
       </c>
     </row>
@@ -26280,26 +26281,26 @@
       </c>
     </row>
     <row r="795" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A795" s="29"/>
-      <c r="B795" s="29"/>
-      <c r="C795" s="29"/>
-      <c r="D795" s="29"/>
-      <c r="E795" s="29"/>
-      <c r="F795" s="29" t="s">
+      <c r="A795" s="28"/>
+      <c r="B795" s="28"/>
+      <c r="C795" s="28"/>
+      <c r="D795" s="28"/>
+      <c r="E795" s="28"/>
+      <c r="F795" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="G795" s="29" t="s">
+      <c r="G795" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="H795" s="29"/>
-      <c r="J795" s="29"/>
-      <c r="K795" s="29"/>
-      <c r="L795" s="29"/>
-      <c r="M795" s="29"/>
-      <c r="N795" s="29"/>
-      <c r="O795" s="29"/>
-      <c r="P795" s="29"/>
-      <c r="Q795" s="29"/>
+      <c r="H795" s="28"/>
+      <c r="J795" s="28"/>
+      <c r="K795" s="28"/>
+      <c r="L795" s="28"/>
+      <c r="M795" s="28"/>
+      <c r="N795" s="28"/>
+      <c r="O795" s="28"/>
+      <c r="P795" s="28"/>
+      <c r="Q795" s="28"/>
     </row>
     <row r="796" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F796" s="0" t="s">
@@ -26326,7 +26327,7 @@
       </c>
     </row>
     <row r="799" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A799" s="29" t="s">
+      <c r="A799" s="28" t="s">
         <v>994</v>
       </c>
       <c r="B799" s="0" t="s">
@@ -26403,7 +26404,7 @@
       </c>
     </row>
     <row r="806" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A806" s="29"/>
+      <c r="A806" s="28"/>
       <c r="F806" s="0" t="s">
         <v>159</v>
       </c>
@@ -26470,7 +26471,7 @@
       </c>
     </row>
     <row r="812" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A812" s="29" t="s">
+      <c r="A812" s="28" t="s">
         <v>1004</v>
       </c>
       <c r="B812" s="0" t="s">
@@ -26521,7 +26522,7 @@
       <c r="L815" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O815" s="31" t="s">
+      <c r="O815" s="30" t="s">
         <v>638</v>
       </c>
     </row>
@@ -26551,7 +26552,7 @@
       </c>
     </row>
     <row r="818" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A818" s="29"/>
+      <c r="A818" s="28"/>
       <c r="F818" s="0" t="s">
         <v>151</v>
       </c>
@@ -26963,7 +26964,7 @@
       <c r="E857" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H857" s="32"/>
+      <c r="H857" s="31"/>
       <c r="J857" s="0" t="s">
         <v>21</v>
       </c>
@@ -26975,13 +26976,13 @@
       <c r="G858" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H858" s="32"/>
+      <c r="H858" s="31"/>
     </row>
     <row r="859" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F859" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G859" s="33" t="s">
+      <c r="G859" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -26998,7 +26999,7 @@
       <c r="E860" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G860" s="33"/>
+      <c r="G860" s="32"/>
       <c r="J860" s="0" t="s">
         <v>21</v>
       </c>
@@ -27007,7 +27008,7 @@
       <c r="F861" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G861" s="33" t="s">
+      <c r="G861" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -27015,7 +27016,7 @@
       <c r="F862" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G862" s="33" t="s">
+      <c r="G862" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -27032,7 +27033,7 @@
       <c r="E863" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G863" s="33"/>
+      <c r="G863" s="32"/>
       <c r="J863" s="0" t="s">
         <v>21</v>
       </c>
@@ -27041,7 +27042,7 @@
       <c r="F864" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G864" s="33" t="s">
+      <c r="G864" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -27049,7 +27050,7 @@
       <c r="F865" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G865" s="33" t="s">
+      <c r="G865" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -27066,7 +27067,7 @@
       <c r="E866" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G866" s="33"/>
+      <c r="G866" s="32"/>
       <c r="H866" s="0" t="s">
         <v>1056</v>
       </c>
@@ -27087,7 +27088,7 @@
       <c r="E867" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G867" s="33"/>
+      <c r="G867" s="32"/>
       <c r="J867" s="0" t="s">
         <v>21</v>
       </c>
@@ -27096,7 +27097,7 @@
       <c r="F868" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G868" s="33" t="s">
+      <c r="G868" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -27104,7 +27105,7 @@
       <c r="F869" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G869" s="33" t="s">
+      <c r="G869" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -27121,7 +27122,7 @@
       <c r="E870" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G870" s="33"/>
+      <c r="G870" s="32"/>
       <c r="H870" s="0" t="s">
         <v>1056</v>
       </c>
@@ -27142,7 +27143,7 @@
       <c r="E871" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G871" s="33"/>
+      <c r="G871" s="32"/>
       <c r="J871" s="0" t="s">
         <v>21</v>
       </c>
@@ -27176,7 +27177,7 @@
       <c r="E874" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G874" s="34"/>
+      <c r="G874" s="33"/>
       <c r="H874" s="0" t="s">
         <v>1064</v>
       </c>
@@ -27197,7 +27198,7 @@
       <c r="E875" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G875" s="34"/>
+      <c r="G875" s="33"/>
       <c r="H875" s="0" t="s">
         <v>24</v>
       </c>
@@ -27221,7 +27222,7 @@
       <c r="E876" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G876" s="34"/>
+      <c r="G876" s="33"/>
       <c r="H876" s="0" t="s">
         <v>1068</v>
       </c>
@@ -27242,7 +27243,7 @@
       <c r="E877" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G877" s="34"/>
+      <c r="G877" s="33"/>
       <c r="H877" s="0" t="s">
         <v>1071</v>
       </c>
@@ -27254,7 +27255,7 @@
       <c r="F878" s="0" t="s">
         <v>1072</v>
       </c>
-      <c r="G878" s="34" t="s">
+      <c r="G878" s="33" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -27262,7 +27263,7 @@
       <c r="F879" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="G879" s="34" t="s">
+      <c r="G879" s="33" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -27270,7 +27271,7 @@
       <c r="F880" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="G880" s="33" t="s">
+      <c r="G880" s="32" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -27278,7 +27279,7 @@
       <c r="F881" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="G881" s="33" t="s">
+      <c r="G881" s="32" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -27286,7 +27287,7 @@
       <c r="F882" s="0" t="s">
         <v>1080</v>
       </c>
-      <c r="G882" s="33" t="s">
+      <c r="G882" s="32" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -27294,7 +27295,7 @@
       <c r="F883" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="G883" s="33" t="s">
+      <c r="G883" s="32" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -27302,7 +27303,7 @@
       <c r="F884" s="0" t="s">
         <v>1084</v>
       </c>
-      <c r="G884" s="33" t="s">
+      <c r="G884" s="32" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -27310,7 +27311,7 @@
       <c r="F885" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="G885" s="33" t="s">
+      <c r="G885" s="32" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -27318,7 +27319,7 @@
       <c r="F886" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="G886" s="33" t="s">
+      <c r="G886" s="32" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -27326,31 +27327,31 @@
       <c r="F887" s="0" t="s">
         <v>1090</v>
       </c>
-      <c r="G887" s="33" t="s">
+      <c r="G887" s="32" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A888" s="29"/>
-      <c r="B888" s="29"/>
-      <c r="C888" s="29"/>
-      <c r="D888" s="29"/>
-      <c r="E888" s="29"/>
-      <c r="F888" s="29" t="s">
+      <c r="A888" s="28"/>
+      <c r="B888" s="28"/>
+      <c r="C888" s="28"/>
+      <c r="D888" s="28"/>
+      <c r="E888" s="28"/>
+      <c r="F888" s="28" t="s">
         <v>1092</v>
       </c>
-      <c r="G888" s="29" t="s">
+      <c r="G888" s="28" t="s">
         <v>1093</v>
       </c>
-      <c r="H888" s="29"/>
-      <c r="J888" s="29"/>
-      <c r="K888" s="29"/>
-      <c r="L888" s="29"/>
-      <c r="M888" s="29"/>
-      <c r="N888" s="29"/>
-      <c r="O888" s="29"/>
-      <c r="P888" s="29"/>
-      <c r="Q888" s="29"/>
+      <c r="H888" s="28"/>
+      <c r="J888" s="28"/>
+      <c r="K888" s="28"/>
+      <c r="L888" s="28"/>
+      <c r="M888" s="28"/>
+      <c r="N888" s="28"/>
+      <c r="O888" s="28"/>
+      <c r="P888" s="28"/>
+      <c r="Q888" s="28"/>
     </row>
     <row r="889" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F889" s="0" t="s">
@@ -27364,7 +27365,7 @@
       <c r="F890" s="0" t="s">
         <v>1096</v>
       </c>
-      <c r="G890" s="35" t="s">
+      <c r="G890" s="34" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -27381,7 +27382,7 @@
       <c r="E891" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G891" s="35"/>
+      <c r="G891" s="34"/>
       <c r="H891" s="0" t="s">
         <v>1071</v>
       </c>
@@ -27390,53 +27391,53 @@
       </c>
     </row>
     <row r="892" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F892" s="36" t="s">
+      <c r="F892" s="35" t="s">
         <v>1100</v>
       </c>
-      <c r="G892" s="35" t="s">
+      <c r="G892" s="34" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F893" s="36" t="s">
+      <c r="F893" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="G893" s="35" t="s">
+      <c r="G893" s="34" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F894" s="36" t="s">
+      <c r="F894" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="G894" s="35" t="s">
+      <c r="G894" s="34" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A895" s="29"/>
-      <c r="B895" s="29"/>
-      <c r="C895" s="29"/>
-      <c r="D895" s="29"/>
-      <c r="E895" s="29"/>
-      <c r="F895" s="29" t="s">
+      <c r="A895" s="28"/>
+      <c r="B895" s="28"/>
+      <c r="C895" s="28"/>
+      <c r="D895" s="28"/>
+      <c r="E895" s="28"/>
+      <c r="F895" s="28" t="s">
         <v>1103</v>
       </c>
-      <c r="G895" s="29" t="s">
+      <c r="G895" s="28" t="s">
         <v>1104</v>
       </c>
-      <c r="H895" s="29"/>
-      <c r="J895" s="29"/>
-      <c r="K895" s="29"/>
-      <c r="L895" s="29"/>
-      <c r="M895" s="29"/>
-      <c r="N895" s="29"/>
-      <c r="O895" s="29"/>
-      <c r="P895" s="29"/>
-      <c r="Q895" s="29"/>
+      <c r="H895" s="28"/>
+      <c r="J895" s="28"/>
+      <c r="K895" s="28"/>
+      <c r="L895" s="28"/>
+      <c r="M895" s="28"/>
+      <c r="N895" s="28"/>
+      <c r="O895" s="28"/>
+      <c r="P895" s="28"/>
+      <c r="Q895" s="28"/>
     </row>
     <row r="896" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F896" s="36" t="s">
+      <c r="F896" s="35" t="s">
         <v>359</v>
       </c>
       <c r="G896" s="0" t="s">
@@ -27444,55 +27445,55 @@
       </c>
     </row>
     <row r="897" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F897" s="36" t="s">
+      <c r="F897" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="G897" s="35" t="s">
+      <c r="G897" s="34" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F898" s="36" t="s">
+      <c r="F898" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="G898" s="35" t="s">
+      <c r="G898" s="34" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F899" s="36" t="s">
+      <c r="F899" s="35" t="s">
         <v>1074</v>
       </c>
-      <c r="G899" s="35" t="s">
+      <c r="G899" s="34" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F900" s="36" t="s">
+      <c r="F900" s="35" t="s">
         <v>1078</v>
       </c>
-      <c r="G900" s="35" t="s">
+      <c r="G900" s="34" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F901" s="36" t="s">
+      <c r="F901" s="35" t="s">
         <v>1084</v>
       </c>
-      <c r="G901" s="35" t="s">
+      <c r="G901" s="34" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F902" s="36" t="s">
+      <c r="F902" s="35" t="s">
         <v>1088</v>
       </c>
-      <c r="G902" s="35" t="s">
+      <c r="G902" s="34" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F903" s="36" t="s">
+      <c r="F903" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="G903" s="0" t="s">
@@ -27500,7 +27501,7 @@
       </c>
     </row>
     <row r="904" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F904" s="36" t="s">
+      <c r="F904" s="35" t="s">
         <v>1092</v>
       </c>
       <c r="G904" s="0" t="s">
@@ -27508,18 +27509,18 @@
       </c>
     </row>
     <row r="905" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F905" s="36" t="s">
+      <c r="F905" s="35" t="s">
         <v>1094</v>
       </c>
-      <c r="G905" s="34" t="s">
+      <c r="G905" s="33" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F906" s="36" t="s">
+      <c r="F906" s="35" t="s">
         <v>1096</v>
       </c>
-      <c r="G906" s="34" t="s">
+      <c r="G906" s="33" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -27536,7 +27537,7 @@
       <c r="E907" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G907" s="34"/>
+      <c r="G907" s="33"/>
       <c r="H907" s="0" t="s">
         <v>1071</v>
       </c>
@@ -27548,7 +27549,7 @@
       <c r="F908" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="G908" s="34" t="s">
+      <c r="G908" s="33" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -27556,7 +27557,7 @@
       <c r="F909" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="G909" s="34" t="s">
+      <c r="G909" s="33" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27564,7 +27565,7 @@
       <c r="F910" s="0" t="s">
         <v>1109</v>
       </c>
-      <c r="G910" s="34" t="s">
+      <c r="G910" s="33" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -27572,7 +27573,7 @@
       <c r="F911" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G911" s="34" t="s">
+      <c r="G911" s="33" t="s">
         <v>352</v>
       </c>
     </row>
@@ -27605,7 +27606,7 @@
       <c r="E914" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G914" s="34"/>
+      <c r="G914" s="33"/>
       <c r="H914" s="0" t="s">
         <v>1071</v>
       </c>
@@ -27617,7 +27618,7 @@
       <c r="F915" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="G915" s="34" t="s">
+      <c r="G915" s="33" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -27625,7 +27626,7 @@
       <c r="F916" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="G916" s="34" t="s">
+      <c r="G916" s="33" t="s">
         <v>486</v>
       </c>
     </row>
@@ -27633,7 +27634,7 @@
       <c r="F917" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="G917" s="34" t="s">
+      <c r="G917" s="33" t="s">
         <v>352</v>
       </c>
     </row>
@@ -27641,7 +27642,7 @@
       <c r="F918" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="G918" s="34" t="s">
+      <c r="G918" s="33" t="s">
         <v>354</v>
       </c>
     </row>
@@ -27658,11 +27659,11 @@
       <c r="E919" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G919" s="34"/>
+      <c r="G919" s="33"/>
       <c r="H919" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="I919" s="34"/>
+      <c r="I919" s="33"/>
       <c r="J919" s="0" t="s">
         <v>45</v>
       </c>
@@ -27674,7 +27675,7 @@
       <c r="G920" s="0" t="s">
         <v>1101</v>
       </c>
-      <c r="I920" s="34"/>
+      <c r="I920" s="33"/>
     </row>
     <row r="921" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F921" s="0" t="s">
@@ -27683,8 +27684,8 @@
       <c r="G921" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="H921" s="32"/>
-      <c r="I921" s="34"/>
+      <c r="H921" s="31"/>
+      <c r="I921" s="33"/>
     </row>
     <row r="922" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F922" s="0" t="s">
@@ -27693,7 +27694,7 @@
       <c r="G922" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="H922" s="32"/>
+      <c r="H922" s="31"/>
     </row>
     <row r="923" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F923" s="0" t="s">
@@ -27702,7 +27703,7 @@
       <c r="G923" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="H923" s="32"/>
+      <c r="H923" s="31"/>
     </row>
     <row r="924" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F924" s="0" t="s">
@@ -27711,7 +27712,7 @@
       <c r="G924" s="0" t="s">
         <v>1120</v>
       </c>
-      <c r="H924" s="32"/>
+      <c r="H924" s="31"/>
     </row>
     <row r="925" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F925" s="0" t="s">
@@ -27753,7 +27754,7 @@
       <c r="H928" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="I928" s="36"/>
+      <c r="I928" s="35"/>
       <c r="J928" s="0" t="s">
         <v>45</v>
       </c>
@@ -27902,7 +27903,7 @@
       <c r="A942" s="0" t="s">
         <v>1130</v>
       </c>
-      <c r="B942" s="37" t="s">
+      <c r="B942" s="36" t="s">
         <v>1131</v>
       </c>
       <c r="C942" s="0" t="s">
@@ -27965,7 +27966,7 @@
       </c>
     </row>
     <row r="948" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A948" s="38" t="s">
+      <c r="A948" s="37" t="s">
         <v>1142</v>
       </c>
       <c r="B948" s="0" t="s">
@@ -28009,7 +28010,7 @@
       </c>
     </row>
     <row r="952" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A952" s="38" t="s">
+      <c r="A952" s="37" t="s">
         <v>1150</v>
       </c>
       <c r="B952" s="0" t="s">
@@ -28053,7 +28054,7 @@
       </c>
     </row>
     <row r="956" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A956" s="38" t="s">
+      <c r="A956" s="37" t="s">
         <v>1158</v>
       </c>
       <c r="B956" s="0" t="s">
@@ -28097,7 +28098,7 @@
       </c>
     </row>
     <row r="960" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A960" s="38" t="s">
+      <c r="A960" s="37" t="s">
         <v>1166</v>
       </c>
       <c r="B960" s="0" t="s">
@@ -28141,7 +28142,7 @@
       </c>
     </row>
     <row r="964" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A964" s="38" t="s">
+      <c r="A964" s="37" t="s">
         <v>1132</v>
       </c>
       <c r="B964" s="0" t="s">
@@ -28185,7 +28186,7 @@
       </c>
     </row>
     <row r="968" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A968" s="38" t="s">
+      <c r="A968" s="37" t="s">
         <v>1138</v>
       </c>
       <c r="B968" s="0" t="s">
@@ -28682,15 +28683,15 @@
       </c>
     </row>
     <row r="1008" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="39"/>
-      <c r="B1008" s="39"/>
+      <c r="A1008" s="38"/>
+      <c r="B1008" s="38"/>
       <c r="F1008" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1008" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1008" s="39"/>
+      <c r="H1008" s="38"/>
     </row>
     <row r="1009" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1009" s="0" t="s">
@@ -28721,10 +28722,10 @@
       </c>
     </row>
     <row r="1011" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="39" t="s">
+      <c r="A1011" s="38" t="s">
         <v>1207</v>
       </c>
-      <c r="B1011" s="39" t="s">
+      <c r="B1011" s="38" t="s">
         <v>1208</v>
       </c>
       <c r="D1011" s="0" t="s">
@@ -28733,7 +28734,7 @@
       <c r="E1011" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1011" s="39" t="s">
+      <c r="H1011" s="38" t="s">
         <v>1208</v>
       </c>
       <c r="J1011" s="0" t="s">
@@ -28781,10 +28782,10 @@
       </c>
     </row>
     <row r="1014" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="39" t="s">
+      <c r="A1014" s="38" t="s">
         <v>1213</v>
       </c>
-      <c r="B1014" s="39" t="s">
+      <c r="B1014" s="38" t="s">
         <v>1214</v>
       </c>
       <c r="D1014" s="0" t="s">
@@ -28793,7 +28794,7 @@
       <c r="E1014" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1014" s="39" t="s">
+      <c r="H1014" s="38" t="s">
         <v>1214</v>
       </c>
       <c r="J1014" s="0" t="s">
@@ -28841,10 +28842,10 @@
       </c>
     </row>
     <row r="1017" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="39" t="s">
+      <c r="A1017" s="38" t="s">
         <v>1219</v>
       </c>
-      <c r="B1017" s="39" t="s">
+      <c r="B1017" s="38" t="s">
         <v>1220</v>
       </c>
       <c r="D1017" s="0" t="s">
@@ -28853,7 +28854,7 @@
       <c r="E1017" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1017" s="39" t="s">
+      <c r="H1017" s="38" t="s">
         <v>1220</v>
       </c>
       <c r="J1017" s="0" t="s">
@@ -28901,10 +28902,10 @@
       </c>
     </row>
     <row r="1020" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="39" t="s">
+      <c r="A1020" s="38" t="s">
         <v>1225</v>
       </c>
-      <c r="B1020" s="39" t="s">
+      <c r="B1020" s="38" t="s">
         <v>1226</v>
       </c>
       <c r="D1020" s="5" t="s">
@@ -28913,7 +28914,7 @@
       <c r="E1020" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1020" s="39" t="s">
+      <c r="H1020" s="38" t="s">
         <v>1226</v>
       </c>
       <c r="J1020" s="0" t="s">
@@ -28924,16 +28925,16 @@
       <c r="A1021" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="B1021" s="39" t="s">
+      <c r="B1021" s="38" t="s">
         <v>1228</v>
       </c>
-      <c r="D1021" s="40" t="s">
+      <c r="D1021" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E1021" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1021" s="39" t="s">
+      <c r="H1021" s="38" t="s">
         <v>1228</v>
       </c>
       <c r="J1021" s="0" t="s">
@@ -28941,19 +28942,19 @@
       </c>
     </row>
     <row r="1022" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="39" t="s">
+      <c r="A1022" s="38" t="s">
         <v>1229</v>
       </c>
-      <c r="B1022" s="39" t="s">
+      <c r="B1022" s="38" t="s">
         <v>1230</v>
       </c>
-      <c r="D1022" s="41" t="s">
+      <c r="D1022" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E1022" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1022" s="39" t="s">
+      <c r="H1022" s="38" t="s">
         <v>1230</v>
       </c>
       <c r="J1022" s="0" t="s">
@@ -28964,7 +28965,7 @@
       <c r="A1023" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B1023" s="39" t="s">
+      <c r="B1023" s="38" t="s">
         <v>914</v>
       </c>
       <c r="D1023" s="5" t="s">
@@ -28973,7 +28974,7 @@
       <c r="E1023" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1023" s="39" t="s">
+      <c r="H1023" s="38" t="s">
         <v>914</v>
       </c>
       <c r="J1023" s="0" t="s">
@@ -28984,22 +28985,22 @@
       <c r="A1024" s="0" t="s">
         <v>1232</v>
       </c>
-      <c r="B1024" s="39" t="s">
+      <c r="B1024" s="38" t="s">
         <v>1233</v>
       </c>
       <c r="D1024" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E1024" s="42" t="s">
+      <c r="E1024" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="H1024" s="39"/>
+      <c r="H1024" s="38"/>
     </row>
     <row r="1025" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
         <v>1234</v>
       </c>
-      <c r="B1025" s="39" t="s">
+      <c r="B1025" s="38" t="s">
         <v>304</v>
       </c>
       <c r="C1025" s="0" t="s">
@@ -29011,7 +29012,7 @@
       <c r="E1025" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1025" s="39" t="s">
+      <c r="H1025" s="38" t="s">
         <v>304</v>
       </c>
       <c r="J1025" s="0" t="s">
@@ -29025,7 +29026,7 @@
       <c r="A1026" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="B1026" s="39" t="s">
+      <c r="B1026" s="38" t="s">
         <v>1237</v>
       </c>
       <c r="C1026" s="0" t="s">
@@ -29037,7 +29038,7 @@
       <c r="E1026" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1026" s="39" t="s">
+      <c r="H1026" s="38" t="s">
         <v>1237</v>
       </c>
       <c r="J1026" s="0" t="s">
@@ -29057,7 +29058,7 @@
       <c r="A1027" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="B1027" s="39" t="s">
+      <c r="B1027" s="38" t="s">
         <v>1241</v>
       </c>
       <c r="D1027" s="0" t="s">
@@ -29066,7 +29067,7 @@
       <c r="E1027" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1027" s="39"/>
+      <c r="H1027" s="38"/>
       <c r="J1027" s="0" t="s">
         <v>45</v>
       </c>
@@ -29105,14 +29106,14 @@
       </c>
     </row>
     <row r="1031" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1031" s="39"/>
+      <c r="B1031" s="38"/>
       <c r="F1031" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1031" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1031" s="39"/>
+      <c r="H1031" s="38"/>
     </row>
     <row r="1032" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1032" s="0" t="s">
@@ -29219,7 +29220,7 @@
       <c r="A1040" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="B1040" s="39" t="s">
+      <c r="B1040" s="38" t="s">
         <v>1252</v>
       </c>
       <c r="D1040" s="0" t="s">
@@ -29228,7 +29229,7 @@
       <c r="E1040" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1040" s="39" t="s">
+      <c r="H1040" s="38" t="s">
         <v>1253</v>
       </c>
       <c r="J1040" s="0" t="s">
@@ -29279,7 +29280,7 @@
       <c r="A1043" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="B1043" s="39" t="s">
+      <c r="B1043" s="38" t="s">
         <v>1260</v>
       </c>
       <c r="D1043" s="0" t="s">
@@ -29288,7 +29289,7 @@
       <c r="E1043" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1043" s="39" t="s">
+      <c r="H1043" s="38" t="s">
         <v>1261</v>
       </c>
       <c r="J1043" s="0" t="s">
@@ -29333,14 +29334,14 @@
       </c>
     </row>
     <row r="1046" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1046" s="39"/>
+      <c r="B1046" s="38"/>
       <c r="F1046" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1046" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1046" s="39"/>
+      <c r="H1046" s="38"/>
     </row>
     <row r="1047" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1047" s="0" t="s">
@@ -29374,7 +29375,7 @@
       <c r="A1049" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="B1049" s="39" t="s">
+      <c r="B1049" s="38" t="s">
         <v>1271</v>
       </c>
       <c r="D1049" s="5" t="s">
@@ -29383,20 +29384,20 @@
       <c r="E1049" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1049" s="39"/>
+      <c r="H1049" s="38"/>
       <c r="J1049" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1050" s="39"/>
+      <c r="B1050" s="38"/>
       <c r="F1050" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1050" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1050" s="39"/>
+      <c r="H1050" s="38"/>
     </row>
     <row r="1051" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1051" s="0" t="s">
@@ -29430,7 +29431,7 @@
       <c r="A1053" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="B1053" s="39" t="s">
+      <c r="B1053" s="38" t="s">
         <v>914</v>
       </c>
       <c r="D1053" s="0" t="s">
@@ -29439,7 +29440,7 @@
       <c r="E1053" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1053" s="39" t="s">
+      <c r="H1053" s="38" t="s">
         <v>914</v>
       </c>
       <c r="J1053" s="0" t="s">
@@ -29490,7 +29491,7 @@
       <c r="A1056" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="B1056" s="39" t="s">
+      <c r="B1056" s="38" t="s">
         <v>1277</v>
       </c>
       <c r="D1056" s="0" t="s">
@@ -29499,7 +29500,7 @@
       <c r="E1056" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1056" s="39" t="s">
+      <c r="H1056" s="38" t="s">
         <v>24</v>
       </c>
       <c r="J1056" s="0" t="s">
@@ -29550,14 +29551,14 @@
       </c>
     </row>
     <row r="1059" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1059" s="39"/>
+      <c r="B1059" s="38"/>
       <c r="F1059" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1059" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1059" s="39"/>
+      <c r="H1059" s="38"/>
     </row>
     <row r="1060" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1060" s="0" t="s">
@@ -29585,7 +29586,7 @@
       </c>
     </row>
     <row r="1062" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1062" s="39"/>
+      <c r="B1062" s="38"/>
       <c r="D1062" s="5"/>
       <c r="E1062" s="5"/>
       <c r="F1062" s="0" t="s">
@@ -29594,10 +29595,10 @@
       <c r="G1062" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1062" s="39"/>
+      <c r="H1062" s="38"/>
     </row>
     <row r="1063" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1063" s="39"/>
+      <c r="B1063" s="38"/>
       <c r="D1063" s="5"/>
       <c r="E1063" s="5"/>
       <c r="F1063" s="0" t="s">
@@ -29606,62 +29607,62 @@
       <c r="G1063" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1063" s="39"/>
+      <c r="H1063" s="38"/>
     </row>
     <row r="1064" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="B1064" s="39" t="s">
+      <c r="B1064" s="38" t="s">
         <v>1284</v>
       </c>
       <c r="D1064" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1064" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1064" s="39"/>
+      <c r="E1064" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1064" s="38"/>
       <c r="J1064" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1065" s="39"/>
-      <c r="E1065" s="36"/>
+      <c r="B1065" s="38"/>
+      <c r="E1065" s="35"/>
       <c r="F1065" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1065" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1065" s="39"/>
+      <c r="H1065" s="38"/>
     </row>
     <row r="1066" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1066" s="39"/>
-      <c r="E1066" s="36"/>
+      <c r="B1066" s="38"/>
+      <c r="E1066" s="35"/>
       <c r="F1066" s="0" t="s">
         <v>151</v>
       </c>
       <c r="G1066" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1066" s="39"/>
+      <c r="H1066" s="38"/>
     </row>
     <row r="1067" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
         <v>1285</v>
       </c>
-      <c r="B1067" s="39" t="s">
+      <c r="B1067" s="38" t="s">
         <v>1286</v>
       </c>
       <c r="D1067" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1067" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1067" s="39" t="s">
+      <c r="E1067" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1067" s="38" t="s">
         <v>1287</v>
       </c>
       <c r="J1067" s="0" t="s">
@@ -29672,7 +29673,7 @@
       <c r="A1068" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="B1068" s="39" t="s">
+      <c r="B1068" s="38" t="s">
         <v>1289</v>
       </c>
       <c r="D1068" s="0" t="s">
@@ -29681,7 +29682,7 @@
       <c r="E1068" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1068" s="39"/>
+      <c r="H1068" s="38"/>
       <c r="J1068" s="0" t="s">
         <v>45</v>
       </c>
@@ -29706,7 +29707,7 @@
       <c r="A1071" s="0" t="s">
         <v>1290</v>
       </c>
-      <c r="B1071" s="39" t="s">
+      <c r="B1071" s="38" t="s">
         <v>1291</v>
       </c>
       <c r="D1071" s="0" t="s">
@@ -29715,7 +29716,7 @@
       <c r="E1071" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1071" s="39"/>
+      <c r="H1071" s="38"/>
       <c r="J1071" s="0" t="s">
         <v>45</v>
       </c>
@@ -29740,7 +29741,7 @@
       <c r="A1074" s="0" t="s">
         <v>1292</v>
       </c>
-      <c r="B1074" s="39" t="s">
+      <c r="B1074" s="38" t="s">
         <v>1293</v>
       </c>
       <c r="D1074" s="0" t="s">
@@ -29749,7 +29750,7 @@
       <c r="E1074" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1074" s="39"/>
+      <c r="H1074" s="38"/>
       <c r="J1074" s="0" t="s">
         <v>45</v>
       </c>
@@ -29774,7 +29775,7 @@
       <c r="A1077" s="0" t="s">
         <v>1294</v>
       </c>
-      <c r="B1077" s="39" t="s">
+      <c r="B1077" s="38" t="s">
         <v>1295</v>
       </c>
       <c r="D1077" s="5" t="s">
@@ -29783,13 +29784,13 @@
       <c r="E1077" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1077" s="39"/>
+      <c r="H1077" s="38"/>
       <c r="J1077" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1078" s="39"/>
+      <c r="B1078" s="38"/>
       <c r="D1078" s="5"/>
       <c r="E1078" s="5"/>
       <c r="F1078" s="0" t="s">
@@ -29798,33 +29799,33 @@
       <c r="G1078" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1078" s="39"/>
+      <c r="H1078" s="38"/>
     </row>
     <row r="1079" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1079" s="39"/>
-      <c r="E1079" s="36"/>
+      <c r="B1079" s="38"/>
+      <c r="E1079" s="35"/>
       <c r="F1079" s="0" t="s">
         <v>151</v>
       </c>
       <c r="G1079" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1079" s="39"/>
+      <c r="H1079" s="38"/>
     </row>
     <row r="1080" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1080" s="0" t="s">
         <v>1296</v>
       </c>
-      <c r="B1080" s="39" t="s">
+      <c r="B1080" s="38" t="s">
         <v>1297</v>
       </c>
       <c r="D1080" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1080" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1080" s="39" t="s">
+      <c r="E1080" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1080" s="38" t="s">
         <v>1298</v>
       </c>
       <c r="J1080" s="0" t="s">
@@ -29835,31 +29836,29 @@
       <c r="A1081" s="0" t="s">
         <v>1299</v>
       </c>
-      <c r="B1081" s="39" t="s">
+      <c r="B1081" s="38" t="s">
         <v>1300</v>
       </c>
       <c r="D1081" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1081" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1081" s="39" t="s">
-        <v>34</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E1081" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1081" s="38"/>
       <c r="J1081" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1082" s="39"/>
+      <c r="B1082" s="38"/>
       <c r="F1082" s="0" t="s">
         <v>1301</v>
       </c>
       <c r="G1082" s="0" t="s">
         <v>1302</v>
       </c>
-      <c r="H1082" s="39"/>
+      <c r="H1082" s="38"/>
     </row>
     <row r="1083" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1083" s="0" t="s">
@@ -29881,7 +29880,7 @@
       <c r="A1085" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="B1085" s="39" t="s">
+      <c r="B1085" s="38" t="s">
         <v>1308</v>
       </c>
       <c r="D1085" s="0" t="s">
@@ -29890,7 +29889,7 @@
       <c r="E1085" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1085" s="39" t="s">
+      <c r="H1085" s="38" t="s">
         <v>1309</v>
       </c>
       <c r="J1085" s="0" t="s">
@@ -29923,14 +29922,14 @@
       </c>
     </row>
     <row r="1088" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1088" s="39"/>
+      <c r="B1088" s="38"/>
       <c r="F1088" s="0" t="s">
         <v>151</v>
       </c>
       <c r="G1088" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1088" s="39"/>
+      <c r="H1088" s="38"/>
     </row>
     <row r="1089" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
@@ -29958,14 +29957,14 @@
       </c>
     </row>
     <row r="1091" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1091" s="39"/>
+      <c r="B1091" s="38"/>
       <c r="F1091" s="0" t="s">
         <v>151</v>
       </c>
       <c r="G1091" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1091" s="39"/>
+      <c r="H1091" s="38"/>
     </row>
     <row r="1092" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1092" s="0" t="s">
@@ -29993,15 +29992,15 @@
       </c>
     </row>
     <row r="1094" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="39"/>
-      <c r="B1094" s="39"/>
+      <c r="A1094" s="38"/>
+      <c r="B1094" s="38"/>
       <c r="F1094" s="0" t="s">
         <v>151</v>
       </c>
       <c r="G1094" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1094" s="39"/>
+      <c r="H1094" s="38"/>
     </row>
     <row r="1095" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
@@ -30041,14 +30040,14 @@
       </c>
     </row>
     <row r="1097" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1097" s="39"/>
+      <c r="B1097" s="38"/>
       <c r="F1097" s="0" t="s">
         <v>1321</v>
       </c>
       <c r="G1097" s="0" t="s">
         <v>1322</v>
       </c>
-      <c r="H1097" s="39"/>
+      <c r="H1097" s="38"/>
     </row>
     <row r="1098" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1098" s="0" t="s">
@@ -30084,14 +30083,14 @@
       </c>
     </row>
     <row r="1101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1101" s="39"/>
+      <c r="B1101" s="38"/>
       <c r="F1101" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1101" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1101" s="39"/>
+      <c r="H1101" s="38"/>
     </row>
     <row r="1102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1102" s="0" t="s">
@@ -30119,14 +30118,14 @@
       </c>
     </row>
     <row r="1104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1104" s="39"/>
+      <c r="B1104" s="38"/>
       <c r="F1104" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1104" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1104" s="39"/>
+      <c r="H1104" s="38"/>
     </row>
     <row r="1105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1105" s="0" t="s">
@@ -30154,14 +30153,14 @@
       </c>
     </row>
     <row r="1107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1107" s="39"/>
+      <c r="B1107" s="38"/>
       <c r="F1107" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1107" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1107" s="39"/>
+      <c r="H1107" s="38"/>
     </row>
     <row r="1108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1108" s="0" t="s">
@@ -30189,14 +30188,14 @@
       </c>
     </row>
     <row r="1110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1110" s="39"/>
+      <c r="B1110" s="38"/>
       <c r="F1110" s="0" t="s">
         <v>159</v>
       </c>
       <c r="G1110" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1110" s="39"/>
+      <c r="H1110" s="38"/>
     </row>
     <row r="1111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1111" s="0" t="s">
@@ -30224,7 +30223,7 @@
       </c>
     </row>
     <row r="1113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1113" s="39"/>
+      <c r="B1113" s="38"/>
       <c r="D1113" s="5"/>
       <c r="E1113" s="5"/>
       <c r="F1113" s="0" t="s">
@@ -30233,7 +30232,7 @@
       <c r="G1113" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1113" s="39"/>
+      <c r="H1113" s="38"/>
     </row>
     <row r="1114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1114" s="0" t="s">
@@ -30689,7 +30688,7 @@
       <c r="H1142" s="0" t="s">
         <v>1377</v>
       </c>
-      <c r="I1142" s="36"/>
+      <c r="I1142" s="35"/>
       <c r="J1142" s="0" t="s">
         <v>45</v>
       </c>
@@ -30736,7 +30735,7 @@
       <c r="H1144" s="0" t="s">
         <v>1382</v>
       </c>
-      <c r="I1144" s="36"/>
+      <c r="I1144" s="35"/>
       <c r="J1144" s="0" t="s">
         <v>45</v>
       </c>
@@ -30774,7 +30773,7 @@
       <c r="E1146" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1146" s="36" t="s">
+      <c r="I1146" s="35" t="s">
         <v>789</v>
       </c>
       <c r="J1146" s="0" t="s">
@@ -30794,7 +30793,7 @@
       <c r="E1147" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1147" s="36" t="s">
+      <c r="I1147" s="35" t="s">
         <v>1387</v>
       </c>
       <c r="J1147" s="0" t="s">
@@ -30825,7 +30824,7 @@
       <c r="E1149" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1149" s="36" t="s">
+      <c r="I1149" s="35" t="s">
         <v>1387</v>
       </c>
       <c r="J1149" s="0" t="s">
@@ -30839,7 +30838,7 @@
       <c r="G1150" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="J1150" s="29"/>
+      <c r="J1150" s="28"/>
     </row>
     <row r="1151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="s">
@@ -31522,7 +31521,7 @@
       <c r="E1200" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1200" s="29"/>
+      <c r="I1200" s="28"/>
       <c r="J1200" s="0" t="s">
         <v>21</v>
       </c>
@@ -31544,32 +31543,32 @@
       </c>
     </row>
     <row r="1203" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1203" s="29" t="s">
+      <c r="A1203" s="28" t="s">
         <v>1452</v>
       </c>
-      <c r="B1203" s="29" t="s">
+      <c r="B1203" s="28" t="s">
         <v>1453</v>
       </c>
-      <c r="C1203" s="29"/>
-      <c r="D1203" s="29" t="s">
+      <c r="C1203" s="28"/>
+      <c r="D1203" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E1203" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1203" s="29"/>
-      <c r="G1203" s="29"/>
-      <c r="H1203" s="29"/>
-      <c r="J1203" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1203" s="29"/>
-      <c r="L1203" s="29"/>
-      <c r="M1203" s="29"/>
-      <c r="N1203" s="29"/>
-      <c r="O1203" s="29"/>
-      <c r="P1203" s="29"/>
-      <c r="Q1203" s="29"/>
+      <c r="E1203" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1203" s="28"/>
+      <c r="G1203" s="28"/>
+      <c r="H1203" s="28"/>
+      <c r="J1203" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1203" s="28"/>
+      <c r="L1203" s="28"/>
+      <c r="M1203" s="28"/>
+      <c r="N1203" s="28"/>
+      <c r="O1203" s="28"/>
+      <c r="P1203" s="28"/>
+      <c r="Q1203" s="28"/>
     </row>
     <row r="1204" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1204" s="0" t="s">
@@ -31771,7 +31770,7 @@
       <c r="L1221" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1221" s="31" t="s">
+      <c r="O1221" s="30" t="s">
         <v>638</v>
       </c>
     </row>
@@ -31936,7 +31935,7 @@
       <c r="E1230" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1230" s="29"/>
+      <c r="I1230" s="28"/>
       <c r="J1230" s="0" t="s">
         <v>21</v>
       </c>
@@ -31958,36 +31957,36 @@
       </c>
     </row>
     <row r="1233" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="29" t="s">
+      <c r="A1233" s="28" t="s">
         <v>1485</v>
       </c>
-      <c r="B1233" s="29" t="s">
+      <c r="B1233" s="28" t="s">
         <v>1486</v>
       </c>
-      <c r="C1233" s="29"/>
-      <c r="D1233" s="29" t="s">
+      <c r="C1233" s="28"/>
+      <c r="D1233" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E1233" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1233" s="29"/>
-      <c r="G1233" s="29"/>
-      <c r="H1233" s="29" t="s">
+      <c r="E1233" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1233" s="28"/>
+      <c r="G1233" s="28"/>
+      <c r="H1233" s="28" t="s">
         <v>1487</v>
       </c>
-      <c r="J1233" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1233" s="29"/>
-      <c r="L1233" s="29"/>
-      <c r="M1233" s="29"/>
-      <c r="N1233" s="29"/>
-      <c r="O1233" s="29"/>
-      <c r="P1233" s="29" t="s">
+      <c r="J1233" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1233" s="28"/>
+      <c r="L1233" s="28"/>
+      <c r="M1233" s="28"/>
+      <c r="N1233" s="28"/>
+      <c r="O1233" s="28"/>
+      <c r="P1233" s="28" t="s">
         <v>1488</v>
       </c>
-      <c r="Q1233" s="29"/>
+      <c r="Q1233" s="28"/>
     </row>
     <row r="1234" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1234" s="0" t="s">
@@ -32896,7 +32895,7 @@
       <c r="L1303" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1303" s="43" t="s">
+      <c r="O1303" s="42" t="s">
         <v>638</v>
       </c>
     </row>
@@ -32942,7 +32941,7 @@
       <c r="L1305" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1305" s="43" t="s">
+      <c r="O1305" s="42" t="s">
         <v>638</v>
       </c>
     </row>
@@ -33110,7 +33109,7 @@
       <c r="L1317" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1317" s="44" t="s">
+      <c r="O1317" s="43" t="s">
         <v>638</v>
       </c>
     </row>
@@ -33599,7 +33598,7 @@
       <c r="E1356" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1356" s="34"/>
+      <c r="I1356" s="33"/>
       <c r="J1356" s="0" t="s">
         <v>45</v>
       </c>
@@ -33619,7 +33618,7 @@
       <c r="G1358" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1358" s="34"/>
+      <c r="I1358" s="33"/>
     </row>
     <row r="1359" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1359" s="0" t="s">
@@ -33634,7 +33633,7 @@
       <c r="E1359" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1359" s="34"/>
+      <c r="G1359" s="33"/>
       <c r="J1359" s="0" t="s">
         <v>45</v>
       </c>
@@ -33646,13 +33645,13 @@
       <c r="G1360" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1360" s="34"/>
+      <c r="I1360" s="33"/>
     </row>
     <row r="1361" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1361" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1361" s="34" t="s">
+      <c r="G1361" s="33" t="s">
         <v>45</v>
       </c>
     </row>
@@ -33677,7 +33676,7 @@
       <c r="F1363" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1363" s="34" t="s">
+      <c r="G1363" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -33702,7 +33701,7 @@
       <c r="E1365" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1365" s="34"/>
+      <c r="G1365" s="33"/>
       <c r="J1365" s="0" t="s">
         <v>45</v>
       </c>
@@ -33711,7 +33710,7 @@
       <c r="F1366" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1366" s="34" t="s">
+      <c r="G1366" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -33719,7 +33718,7 @@
       <c r="F1367" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1367" s="34" t="s">
+      <c r="G1367" s="33" t="s">
         <v>45</v>
       </c>
     </row>
@@ -33736,7 +33735,7 @@
       <c r="E1368" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G1368" s="34"/>
+      <c r="G1368" s="33"/>
       <c r="J1368" s="0" t="s">
         <v>21</v>
       </c>
@@ -33754,7 +33753,7 @@
       <c r="E1369" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G1369" s="34"/>
+      <c r="G1369" s="33"/>
       <c r="J1369" s="0" t="s">
         <v>21</v>
       </c>
@@ -33772,7 +33771,7 @@
       <c r="E1370" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G1370" s="34"/>
+      <c r="G1370" s="33"/>
       <c r="J1370" s="0" t="s">
         <v>21</v>
       </c>
@@ -33790,7 +33789,7 @@
       <c r="E1371" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1371" s="34"/>
+      <c r="G1371" s="33"/>
       <c r="H1371" s="0" t="s">
         <v>1646</v>
       </c>
@@ -33814,7 +33813,7 @@
       <c r="E1372" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1372" s="34"/>
+      <c r="G1372" s="33"/>
       <c r="H1372" s="0" t="s">
         <v>1649</v>
       </c>
@@ -33838,7 +33837,7 @@
       <c r="E1373" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1373" s="34"/>
+      <c r="G1373" s="33"/>
       <c r="H1373" s="0" t="s">
         <v>1653</v>
       </c>
@@ -33862,7 +33861,7 @@
       <c r="E1374" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1374" s="34"/>
+      <c r="G1374" s="33"/>
       <c r="J1374" s="0" t="s">
         <v>21</v>
       </c>
@@ -33874,13 +33873,13 @@
       <c r="G1375" s="0" t="s">
         <v>1658</v>
       </c>
-      <c r="H1375" s="34"/>
+      <c r="H1375" s="33"/>
     </row>
     <row r="1376" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1376" s="0" t="s">
         <v>1659</v>
       </c>
-      <c r="G1376" s="34" t="s">
+      <c r="G1376" s="33" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -33897,7 +33896,7 @@
       <c r="E1377" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1377" s="34"/>
+      <c r="G1377" s="33"/>
       <c r="H1377" s="0" t="s">
         <v>1663</v>
       </c>
@@ -33921,7 +33920,7 @@
       <c r="E1378" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1378" s="34"/>
+      <c r="G1378" s="33"/>
       <c r="H1378" s="0" t="s">
         <v>34</v>
       </c>
@@ -33936,7 +33935,7 @@
       <c r="F1379" s="0" t="s">
         <v>1387</v>
       </c>
-      <c r="G1379" s="34" t="s">
+      <c r="G1379" s="33" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -33956,7 +33955,7 @@
       <c r="H1380" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1380" s="36" t="s">
+      <c r="I1380" s="35" t="s">
         <v>1387</v>
       </c>
       <c r="J1380" s="0" t="s">
@@ -33984,7 +33983,7 @@
       <c r="E1382" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1382" s="34"/>
+      <c r="G1382" s="33"/>
       <c r="H1382" s="0" t="s">
         <v>34</v>
       </c>
@@ -33999,7 +33998,7 @@
       <c r="F1383" s="0" t="s">
         <v>1387</v>
       </c>
-      <c r="G1383" s="34" t="s">
+      <c r="G1383" s="33" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -34016,7 +34015,7 @@
       <c r="E1384" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1384" s="34"/>
+      <c r="G1384" s="33"/>
       <c r="H1384" s="0" t="s">
         <v>34</v>
       </c>
@@ -34031,7 +34030,7 @@
       <c r="F1385" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="G1385" s="34" t="s">
+      <c r="G1385" s="33" t="s">
         <v>374</v>
       </c>
     </row>
@@ -34039,7 +34038,7 @@
       <c r="F1386" s="0" t="s">
         <v>1673</v>
       </c>
-      <c r="G1386" s="34" t="s">
+      <c r="G1386" s="33" t="s">
         <v>1674</v>
       </c>
     </row>
@@ -34047,7 +34046,7 @@
       <c r="F1387" s="0" t="s">
         <v>1675</v>
       </c>
-      <c r="G1387" s="34" t="s">
+      <c r="G1387" s="33" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -34055,7 +34054,7 @@
       <c r="F1388" s="0" t="s">
         <v>1677</v>
       </c>
-      <c r="G1388" s="34" t="s">
+      <c r="G1388" s="33" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -34063,7 +34062,7 @@
       <c r="F1389" s="0" t="s">
         <v>1679</v>
       </c>
-      <c r="G1389" s="34" t="s">
+      <c r="G1389" s="33" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -34071,7 +34070,7 @@
       <c r="F1390" s="0" t="s">
         <v>1681</v>
       </c>
-      <c r="G1390" s="34" t="s">
+      <c r="G1390" s="33" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -34800,7 +34799,7 @@
       <c r="H1444" s="0" t="s">
         <v>1738</v>
       </c>
-      <c r="I1444" s="34"/>
+      <c r="I1444" s="33"/>
       <c r="J1444" s="0" t="s">
         <v>21</v>
       </c>
@@ -34847,7 +34846,7 @@
       <c r="H1446" s="0" t="s">
         <v>1743</v>
       </c>
-      <c r="I1446" s="34"/>
+      <c r="I1446" s="33"/>
       <c r="J1446" s="0" t="s">
         <v>21</v>
       </c>
@@ -34891,11 +34890,11 @@
       <c r="E1448" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1448" s="34"/>
+      <c r="G1448" s="33"/>
       <c r="H1448" s="0" t="s">
         <v>1748</v>
       </c>
-      <c r="I1448" s="34"/>
+      <c r="I1448" s="33"/>
       <c r="J1448" s="0" t="s">
         <v>21</v>
       </c>
@@ -34939,7 +34938,7 @@
       <c r="E1450" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G1450" s="34"/>
+      <c r="G1450" s="33"/>
       <c r="H1450" s="0" t="s">
         <v>1753</v>
       </c>
@@ -34986,7 +34985,7 @@
       <c r="E1452" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G1452" s="34"/>
+      <c r="G1452" s="33"/>
       <c r="H1452" s="0" t="s">
         <v>1757</v>
       </c>
@@ -35372,7 +35371,7 @@
       <c r="E1472" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1472" s="34"/>
+      <c r="G1472" s="33"/>
       <c r="H1472" s="0" t="s">
         <v>34</v>
       </c>
@@ -35387,7 +35386,7 @@
       <c r="F1473" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G1473" s="34" t="s">
+      <c r="G1473" s="33" t="s">
         <v>358</v>
       </c>
     </row>
@@ -35404,7 +35403,7 @@
       <c r="E1474" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1474" s="34"/>
+      <c r="G1474" s="33"/>
       <c r="H1474" s="0" t="s">
         <v>34</v>
       </c>
@@ -35419,7 +35418,7 @@
       <c r="F1475" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="G1475" s="34" t="s">
+      <c r="G1475" s="33" t="s">
         <v>399</v>
       </c>
     </row>
@@ -35490,7 +35489,7 @@
       <c r="F1482" s="0" t="s">
         <v>1797</v>
       </c>
-      <c r="G1482" s="35" t="s">
+      <c r="G1482" s="34" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -35498,7 +35497,7 @@
       <c r="F1483" s="0" t="s">
         <v>1799</v>
       </c>
-      <c r="G1483" s="35" t="s">
+      <c r="G1483" s="34" t="s">
         <v>1800</v>
       </c>
     </row>
@@ -35506,7 +35505,7 @@
       <c r="F1484" s="0" t="s">
         <v>1801</v>
       </c>
-      <c r="G1484" s="35" t="s">
+      <c r="G1484" s="34" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -35514,7 +35513,7 @@
       <c r="F1485" s="0" t="s">
         <v>1803</v>
       </c>
-      <c r="G1485" s="35" t="s">
+      <c r="G1485" s="34" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -35522,7 +35521,7 @@
       <c r="F1486" s="0" t="s">
         <v>1805</v>
       </c>
-      <c r="G1486" s="35" t="s">
+      <c r="G1486" s="34" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -35553,7 +35552,7 @@
       <c r="F1488" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="G1488" s="35" t="s">
+      <c r="G1488" s="34" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -35561,7 +35560,7 @@
       <c r="F1489" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="G1489" s="35" t="s">
+      <c r="G1489" s="34" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -35569,7 +35568,7 @@
       <c r="F1490" s="0" t="s">
         <v>1092</v>
       </c>
-      <c r="G1490" s="35" t="s">
+      <c r="G1490" s="34" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -35983,7 +35982,7 @@
   <conditionalFormatting sqref="A159:A558">
     <cfRule type="duplicateValues" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J31 J33:J54 J57:J58 J61:J62 J65:J158" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
@@ -35992,8 +35991,12 @@
       <formula1>INDIRECT(D128)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E31 E33:E54 E57:E58 E61:E62 E65:E126 E129:E158 E1020:E1026 E1030 E1034:E1039 E1049 E1062:E1067 E1077:E1081 E1100 E1113" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E31 E33:E54 E57:E58 E61:E62 E65:E126 E129:E158 E1020:E1026 E1030 E1034:E1039 E1049 E1062:E1067 E1077:E1080 E1100 E1113" type="list">
       <formula1>INDIRECT(D61)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1081" type="list">
+      <formula1>INDIRECT(D1140)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
+++ b/clients/ArrowHead/content/entity/DealerPolicyFields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5429" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="1850">
   <si>
     <t xml:space="preserve">Field Name</t>
   </si>
@@ -3823,7 +3823,7 @@
     <t xml:space="preserve">Are significant changes in the nature of size of the Applicant's business anticipated over the next twelve (12) months?  Or has there been any such changes within the past twelve (12) month?</t>
   </si>
   <si>
-    <t xml:space="preserve">pleaseexplain</t>
+    <t xml:space="preserve">natureofsizeexplain</t>
   </si>
   <si>
     <t xml:space="preserve">If "Yes" please explain</t>
@@ -3943,7 +3943,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">ifotherspecify</t>
+    <t xml:space="preserve">backingupandstorageother</t>
   </si>
   <si>
     <t xml:space="preserve">If other, please specify</t>
@@ -3985,22 +3985,34 @@
     <t xml:space="preserve">Please check all of the descriptions of website content posted by the Applicant:</t>
   </si>
   <si>
-    <t xml:space="preserve">noWebsiteStreamingVideoOrMusicContentBlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Website Streaming video or music content Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">messageBoards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message Boards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customerReviewsInformationCreatedByTheApplicantContentUnderLicenseFromAThirdParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Reviews Information created by the Applicant Content under license from a third party</t>
+    <t xml:space="preserve">noWebsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamingVideoOrMusicContent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streaming video or music content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blogMessageBoardsCustomerReviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog/Message Boards/Customer Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informationCreatedByTheApplicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information created by the Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contentUnderLicenseFromAThirdParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content under license from a third party</t>
   </si>
   <si>
     <t xml:space="preserve">thirdpartysprivacy</t>
@@ -4039,7 +4051,7 @@
     <t xml:space="preserve">Does the Applicant or other proposed insured, or any director, officers or employee of the Applicant or other proposed insured have knowledge of or information regarding any fact, circumstance, situation, event of transaction which may give rise to a claim or loss or obligation to provide breach notification under the proposed insurance?</t>
   </si>
   <si>
-    <t xml:space="preserve">providedetails</t>
+    <t xml:space="preserve">proposedinsureddetails</t>
   </si>
   <si>
     <t xml:space="preserve">If YES, please provide details</t>
@@ -5552,6 +5564,12 @@
   </si>
   <si>
     <t xml:space="preserve">RPS Cyber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insuranceAllegingattachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance alleging discrimination, harassment or violations of civil rights</t>
   </si>
 </sst>
 </file>
@@ -5920,17 +5938,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 3" xfId="20"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5999,18 +6006,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1529"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A1014" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="P1026" activeCellId="0" sqref="P1026"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A1517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1537" activeCellId="0" sqref="B1537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8219,7 +8228,9 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
+      <c r="K76" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -24347,7 +24358,7 @@
       <c r="H704" s="17"/>
       <c r="I704" s="17"/>
       <c r="J704" s="17" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K704" s="17"/>
       <c r="L704" s="17" t="s">
@@ -30066,400 +30077,382 @@
       </c>
     </row>
     <row r="1100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="0" t="s">
+      <c r="F1100" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="B1100" s="0" t="s">
+      <c r="G1100" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="D1100" s="5" t="s">
+    </row>
+    <row r="1101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1101" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G1101" s="0" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1102" s="0" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1102" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E1100" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1100" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1101" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1101" s="38"/>
-      <c r="F1101" s="0" t="s">
+      <c r="E1102" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1102" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1103" s="38"/>
+      <c r="F1103" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1101" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1101" s="38"/>
-    </row>
-    <row r="1102" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1102" s="0" t="s">
+      <c r="G1103" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1103" s="38"/>
+    </row>
+    <row r="1104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1104" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1102" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1103" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B1103" s="0" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D1103" s="0" t="s">
+      <c r="G1104" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1105" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1105" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1103" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1103" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1104" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1104" s="38"/>
-      <c r="F1104" s="0" t="s">
+      <c r="E1105" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1105" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1106" s="38"/>
+      <c r="F1106" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1104" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1104" s="38"/>
-    </row>
-    <row r="1105" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1105" s="0" t="s">
+      <c r="G1106" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1106" s="38"/>
+    </row>
+    <row r="1107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1107" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1105" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1106" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B1106" s="0" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D1106" s="0" t="s">
+      <c r="G1107" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1108" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1108" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1106" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1106" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1107" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1107" s="38"/>
-      <c r="F1107" s="0" t="s">
+      <c r="E1108" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1108" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1109" s="38"/>
+      <c r="F1109" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1107" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1107" s="38"/>
-    </row>
-    <row r="1108" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1108" s="0" t="s">
+      <c r="G1109" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1109" s="38"/>
+    </row>
+    <row r="1110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1110" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1108" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1109" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B1109" s="0" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D1109" s="0" t="s">
+      <c r="G1110" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1111" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D1111" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1109" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1109" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1110" s="38"/>
-      <c r="F1110" s="0" t="s">
+      <c r="E1111" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1111" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1112" s="38"/>
+      <c r="F1112" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1110" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1110" s="38"/>
-    </row>
-    <row r="1111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1111" s="0" t="s">
+      <c r="G1112" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1112" s="38"/>
+    </row>
+    <row r="1113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1113" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1111" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B1112" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D1112" s="0" t="s">
+      <c r="G1113" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1114" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1114" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1112" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1112" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1113" s="38"/>
-      <c r="D1113" s="5"/>
-      <c r="E1113" s="5"/>
-      <c r="F1113" s="0" t="s">
+      <c r="E1114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1114" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1115" s="38"/>
+      <c r="D1115" s="5"/>
+      <c r="E1115" s="5"/>
+      <c r="F1115" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1113" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1113" s="38"/>
-    </row>
-    <row r="1114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1114" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1114" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1115" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B1115" s="0" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D1115" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="E1115" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1115" s="0" t="s">
-        <v>45</v>
-      </c>
+      <c r="G1115" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1115" s="38"/>
     </row>
     <row r="1116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1116" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1116" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1117" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1117" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1117" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1118" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1116" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1117" s="0" t="s">
+      <c r="G1118" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1119" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1117" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1118" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B1118" s="0" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D1118" s="0" t="s">
+      <c r="G1119" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1120" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1120" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1118" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1118" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J1118" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B1119" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D1119" s="0" t="s">
+      <c r="E1120" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1120" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J1120" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1121" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1121" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E1119" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1119" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1120" s="0" t="s">
+      <c r="E1121" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1121" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1122" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1120" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1121" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1121" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1121" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1122" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B1122" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D1122" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="E1122" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1122" s="0" t="s">
-        <v>45</v>
+      <c r="G1122" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1123" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1123" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1124" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1124" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1124" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1125" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1123" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1124" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1124" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1124" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1125" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B1125" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D1125" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="E1125" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1125" s="0" t="s">
-        <v>45</v>
+      <c r="G1125" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1126" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1126" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1127" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D1127" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1127" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1127" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1128" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1126" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1127" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1127" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1127" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1128" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B1128" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D1128" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="E1128" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1128" s="0" t="s">
-        <v>45</v>
+      <c r="G1128" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1129" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1129" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1130" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1130" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1130" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1130" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1131" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1129" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1130" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1130" s="5"/>
-      <c r="F1130" s="0" t="s">
+      <c r="G1131" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1132" s="5"/>
+      <c r="F1132" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1130" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1131" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1131" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B1131" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D1131" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1131" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1131" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J1131" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1132" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1132" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B1132" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D1132" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1132" s="0" t="s">
-        <v>191</v>
+      <c r="G1132" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30467,19 +30460,16 @@
         <v>1354</v>
       </c>
       <c r="B1133" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1133" s="0" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D1133" s="0" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E1133" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H1133" s="0" t="s">
-        <v>193</v>
+        <v>1345</v>
       </c>
       <c r="J1133" s="0" t="s">
         <v>45</v>
@@ -30487,36 +30477,27 @@
     </row>
     <row r="1134" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B1134" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1134" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1134" s="5" t="s">
-        <v>63</v>
+        <v>1357</v>
+      </c>
+      <c r="D1134" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="E1134" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1134" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="J1134" s="0" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1135" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1135" s="0" t="s">
         <v>1356</v>
-      </c>
-      <c r="B1135" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C1135" s="0" t="s">
-        <v>1352</v>
       </c>
       <c r="D1135" s="0" t="s">
         <v>63</v>
@@ -30525,7 +30506,7 @@
         <v>20</v>
       </c>
       <c r="H1135" s="0" t="s">
-        <v>1357</v>
+        <v>193</v>
       </c>
       <c r="J1135" s="0" t="s">
         <v>45</v>
@@ -30533,22 +30514,22 @@
     </row>
     <row r="1136" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B1136" s="0" t="s">
-        <v>1359</v>
+        <v>601</v>
       </c>
       <c r="C1136" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1136" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1136" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E1136" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H1136" s="0" t="s">
-        <v>1359</v>
+        <v>601</v>
       </c>
       <c r="J1136" s="0" t="s">
         <v>45</v>
@@ -30562,7 +30543,7 @@
         <v>1361</v>
       </c>
       <c r="C1137" s="0" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D1137" s="0" t="s">
         <v>63</v>
@@ -30571,7 +30552,7 @@
         <v>20</v>
       </c>
       <c r="H1137" s="0" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J1137" s="0" t="s">
         <v>45</v>
@@ -30579,13 +30560,13 @@
     </row>
     <row r="1138" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1138" s="0" t="s">
         <v>1363</v>
       </c>
-      <c r="B1138" s="0" t="s">
-        <v>1364</v>
-      </c>
       <c r="C1138" s="0" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D1138" s="0" t="s">
         <v>63</v>
@@ -30594,7 +30575,7 @@
         <v>20</v>
       </c>
       <c r="H1138" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J1138" s="0" t="s">
         <v>45</v>
@@ -30602,22 +30583,22 @@
     </row>
     <row r="1139" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1139" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1139" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1139" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1139" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1139" s="0" t="s">
         <v>1366</v>
-      </c>
-      <c r="B1139" s="0" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C1139" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1139" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1139" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1139" s="0" t="s">
-        <v>1368</v>
       </c>
       <c r="J1139" s="0" t="s">
         <v>45</v>
@@ -30625,13 +30606,13 @@
     </row>
     <row r="1140" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B1140" s="0" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C1140" s="0" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D1140" s="0" t="s">
         <v>63</v>
@@ -30640,7 +30621,7 @@
         <v>20</v>
       </c>
       <c r="H1140" s="0" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J1140" s="0" t="s">
         <v>45</v>
@@ -30648,22 +30629,22 @@
     </row>
     <row r="1141" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1141" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1141" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1141" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1141" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1141" s="0" t="s">
         <v>1372</v>
-      </c>
-      <c r="B1141" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C1141" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1141" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1141" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1141" s="0" t="s">
-        <v>1374</v>
       </c>
       <c r="J1141" s="0" t="s">
         <v>45</v>
@@ -30671,37 +30652,36 @@
     </row>
     <row r="1142" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1142" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C1142" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1142" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1142" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1142" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="B1142" s="0" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C1142" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1142" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1142" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1142" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I1142" s="35"/>
       <c r="J1142" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1143" s="0" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B1143" s="0" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C1143" s="0" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="D1143" s="0" t="s">
         <v>63</v>
@@ -30710,7 +30690,7 @@
         <v>20</v>
       </c>
       <c r="H1143" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J1143" s="0" t="s">
         <v>45</v>
@@ -30718,22 +30698,22 @@
     </row>
     <row r="1144" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1144" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C1144" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1144" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1144" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1144" s="0" t="s">
         <v>1381</v>
-      </c>
-      <c r="B1144" s="0" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C1144" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1144" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1144" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1144" s="0" t="s">
-        <v>1382</v>
       </c>
       <c r="I1144" s="35"/>
       <c r="J1144" s="0" t="s">
@@ -30742,30 +30722,36 @@
     </row>
     <row r="1145" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1145" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1145" s="0" t="s">
         <v>1383</v>
       </c>
-      <c r="B1145" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="D1145" s="5" t="s">
+      <c r="C1145" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1145" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E1145" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1145" s="0" t="s">
-        <v>789</v>
+      <c r="H1145" s="0" t="s">
+        <v>1384</v>
       </c>
       <c r="J1145" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1146" s="0" t="s">
-        <v>788</v>
+        <v>1386</v>
+      </c>
+      <c r="C1146" s="0" t="s">
+        <v>1356</v>
       </c>
       <c r="D1146" s="0" t="s">
         <v>63</v>
@@ -30773,50 +30759,60 @@
       <c r="E1146" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1146" s="35" t="s">
-        <v>789</v>
-      </c>
+      <c r="H1146" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I1146" s="35"/>
       <c r="J1146" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="B1147" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D1147" s="0" t="s">
-        <v>33</v>
+        <v>914</v>
+      </c>
+      <c r="D1147" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E1147" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I1147" s="35" t="s">
-        <v>1387</v>
+      <c r="I1147" s="0" t="s">
+        <v>789</v>
       </c>
       <c r="J1147" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1148" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G1148" s="0" t="s">
+      <c r="A1148" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1148" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1148" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1148" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1148" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="I1148" s="0" t="s">
-        <v>789</v>
+      <c r="J1148" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B1149" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D1149" s="0" t="s">
         <v>33</v>
@@ -30825,7 +30821,7 @@
         <v>20</v>
       </c>
       <c r="I1149" s="35" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="J1149" s="0" t="s">
         <v>21</v>
@@ -30833,59 +30829,50 @@
     </row>
     <row r="1150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1150" s="0" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G1150" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="J1150" s="28"/>
+      <c r="I1150" s="0" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="1151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="B1151" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1151" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1151" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1151" s="35" t="s">
         <v>1391</v>
       </c>
-      <c r="D1151" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1151" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1151" s="0" t="s">
+      <c r="J1151" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1152" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G1152" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="J1151" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1152" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B1152" s="0" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D1152" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1152" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1152" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J1152" s="0" t="s">
-        <v>45</v>
-      </c>
+      <c r="J1152" s="28"/>
     </row>
     <row r="1153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1153" s="0" t="s">
         <v>1395</v>
-      </c>
-      <c r="B1153" s="0" t="s">
-        <v>1396</v>
       </c>
       <c r="D1153" s="0" t="s">
         <v>63</v>
@@ -30893,19 +30880,19 @@
       <c r="E1153" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1153" s="0" t="s">
-        <v>1396</v>
+      <c r="I1153" s="0" t="s">
+        <v>789</v>
       </c>
       <c r="J1153" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1154" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1154" s="0" t="s">
         <v>1397</v>
-      </c>
-      <c r="B1154" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="D1154" s="0" t="s">
         <v>63</v>
@@ -30913,8 +30900,8 @@
       <c r="E1154" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1154" s="0" t="s">
-        <v>193</v>
+      <c r="I1154" s="0" t="s">
+        <v>1398</v>
       </c>
       <c r="J1154" s="0" t="s">
         <v>45</v>
@@ -30922,10 +30909,10 @@
     </row>
     <row r="1155" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B1155" s="0" t="s">
-        <v>196</v>
+        <v>1400</v>
       </c>
       <c r="D1155" s="0" t="s">
         <v>63</v>
@@ -30934,931 +30921,925 @@
         <v>20</v>
       </c>
       <c r="H1155" s="0" t="s">
-        <v>196</v>
+        <v>1400</v>
       </c>
       <c r="J1155" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1156" s="0" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B1156" s="0" t="s">
-        <v>1400</v>
+        <v>193</v>
       </c>
       <c r="D1156" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1156" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1156" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1156" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1157" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1157" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1157" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1157" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1157" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1158" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D1158" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1156" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1156" s="0" t="s">
+      <c r="E1158" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1158" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1156" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1156" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1157" s="0" t="s">
-        <v>1402</v>
-      </c>
-      <c r="G1157" s="0" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="1158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1158" s="0" t="s">
+      <c r="J1158" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1158" s="0" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1159" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G1159" s="0" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1160" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="G1158" s="0" t="s">
+      <c r="G1160" s="0" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="1159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1159" s="0" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B1159" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D1159" s="0" t="s">
+    <row r="1161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1161" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1161" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1159" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1159" s="0" t="s">
+      <c r="E1161" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1161" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1159" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1159" s="0" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1160" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1160" s="0" t="n">
+      <c r="J1161" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1161" s="0" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1162" s="0" t="n">
         <v>61212</v>
       </c>
-      <c r="G1160" s="0" t="n">
+      <c r="G1162" s="0" t="n">
         <v>61212</v>
       </c>
     </row>
-    <row r="1161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1161" s="0" t="n">
+    <row r="1163" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1163" s="0" t="n">
         <v>49451</v>
       </c>
-      <c r="G1161" s="0" t="n">
+      <c r="G1163" s="0" t="n">
         <v>49451</v>
       </c>
     </row>
-    <row r="1162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1162" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B1162" s="0" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D1162" s="0" t="s">
+    <row r="1164" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="0" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1164" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D1164" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1162" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1162" s="0" t="s">
+      <c r="E1164" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1164" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1162" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1162" s="0" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="1163" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1163" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G1163" s="0" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="1164" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1164" s="0" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G1164" s="0" t="s">
+      <c r="J1164" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1164" s="0" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1165" s="0" t="s">
+      <c r="F1165" s="0" t="s">
         <v>1414</v>
       </c>
-      <c r="B1165" s="0" t="s">
+      <c r="G1165" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="D1165" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1165" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1165" s="0" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J1165" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1165" s="0" t="s">
+    </row>
+    <row r="1166" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1166" s="0" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="1166" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1166" s="0" t="s">
+      <c r="G1166" s="0" t="s">
         <v>1417</v>
-      </c>
-      <c r="B1166" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D1166" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1166" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1166" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="J1166" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1167" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1167" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="B1167" s="0" t="s">
+      <c r="D1167" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1167" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1167" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J1167" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1167" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="D1167" s="0" t="s">
+    </row>
+    <row r="1168" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1168" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D1168" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1168" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1168" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J1168" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1169" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D1169" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1167" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1167" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1168" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1168" s="0" t="s">
+      <c r="E1169" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1169" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1170" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1168" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1169" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1169" s="0" t="s">
+      <c r="G1170" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1171" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1169" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1170" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1170" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B1170" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D1170" s="0" t="s">
+      <c r="G1171" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1172" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1172" s="0" t="s">
         <v>1238</v>
       </c>
-      <c r="E1170" s="0" t="s">
+      <c r="E1172" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H1170" s="0" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J1170" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1170" s="0" t="n">
+      <c r="H1172" s="0" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J1172" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1172" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L1170" s="0" t="n">
+      <c r="L1172" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="1171" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1171" s="0" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B1171" s="0" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D1171" s="0" t="s">
+    <row r="1173" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1173" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1173" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1171" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1171" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1172" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1172" s="0" t="s">
+      <c r="E1173" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1173" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1174" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F1172" s="0" t="s">
+      <c r="F1174" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1172" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1173" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1173" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1173" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1174" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1174" s="0" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B1174" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D1174" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1174" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1174" s="0" t="s">
-        <v>45</v>
+      <c r="G1174" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1175" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1175" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1176" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1176" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1176" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1176" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1177" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1175" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1176" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1176" s="0" t="s">
+      <c r="G1177" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1178" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1176" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1177" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1177" s="0" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B1177" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D1177" s="0" t="s">
+      <c r="G1178" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1179" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1179" s="0" t="s">
         <v>1238</v>
       </c>
-      <c r="E1177" s="0" t="s">
+      <c r="E1179" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H1177" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J1177" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1177" s="0" t="n">
+      <c r="H1179" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J1179" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1179" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L1177" s="0" t="n">
+      <c r="L1179" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="1178" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1178" s="0" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B1178" s="0" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D1178" s="0" t="s">
+    <row r="1180" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="0" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1180" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D1180" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1178" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1178" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1179" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1179" s="0" t="s">
+      <c r="E1180" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1180" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1181" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1179" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1180" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1180" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1180" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1181" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1181" s="0" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B1181" s="0" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D1181" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1181" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1181" s="0" t="s">
-        <v>45</v>
+      <c r="G1181" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1182" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1182" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1183" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1183" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1183" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1183" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1184" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1182" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1183" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1183" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1183" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1184" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1184" s="0" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B1184" s="0" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D1184" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1184" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1184" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1184" s="0" t="s">
+      <c r="G1184" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1185" s="0" t="s">
-        <v>1437</v>
+        <v>151</v>
       </c>
       <c r="G1185" s="0" t="s">
-        <v>1438</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1186" s="0" t="s">
+      <c r="A1186" s="0" t="s">
         <v>1439</v>
       </c>
-      <c r="G1186" s="0" t="s">
+      <c r="B1186" s="0" t="s">
         <v>1440</v>
       </c>
+      <c r="D1186" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1186" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1186" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1186" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1187" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1187" s="0" t="s">
+      <c r="F1187" s="0" t="s">
         <v>1441</v>
       </c>
-      <c r="B1187" s="0" t="s">
+      <c r="G1187" s="0" t="s">
         <v>1442</v>
-      </c>
-      <c r="D1187" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1187" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1187" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1188" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G1188" s="0" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="0" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1189" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D1189" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1189" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1189" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1190" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1188" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1189" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1189" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1189" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1190" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1190" s="0" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B1190" s="0" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D1190" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1190" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1190" s="0" t="s">
+      <c r="G1190" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1191" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1191" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="0" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1192" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D1192" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1192" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1192" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1193" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1191" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1192" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1192" s="0" t="s">
+      <c r="G1193" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1194" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1192" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1193" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1193" s="0" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B1193" s="0" t="s">
+      <c r="G1194" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="0" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1195" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D1193" s="0" t="s">
+      <c r="D1195" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1193" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1193" s="0" t="s">
+      <c r="E1195" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1195" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="J1193" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1194" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1194" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B1194" s="0" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D1194" s="0" t="s">
+      <c r="J1195" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1196" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1196" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1194" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1194" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1195" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1195" s="0" t="s">
+      <c r="E1196" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1196" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1197" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1195" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1196" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1196" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1196" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1197" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1197" s="0" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B1197" s="0" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D1197" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1197" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1197" s="0" t="s">
+      <c r="G1197" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1198" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1198" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1199" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1199" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1199" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1199" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1200" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1198" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1199" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1199" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1199" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1200" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1200" s="0" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B1200" s="0" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D1200" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1200" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1200" s="28"/>
-      <c r="J1200" s="0" t="s">
+      <c r="G1200" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1201" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1201" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1202" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1202" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1202" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1202" s="28"/>
+      <c r="J1202" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1203" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1201" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1202" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1202" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1202" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1203" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1203" s="28" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B1203" s="28" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C1203" s="28"/>
-      <c r="D1203" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1203" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1203" s="28"/>
-      <c r="G1203" s="28"/>
-      <c r="H1203" s="28"/>
-      <c r="J1203" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1203" s="28"/>
-      <c r="L1203" s="28"/>
-      <c r="M1203" s="28"/>
-      <c r="N1203" s="28"/>
-      <c r="O1203" s="28"/>
-      <c r="P1203" s="28"/>
-      <c r="Q1203" s="28"/>
+      <c r="G1203" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="1204" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1204" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1204" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="28" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1205" s="28" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C1205" s="28"/>
+      <c r="D1205" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1205" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1205" s="28"/>
+      <c r="G1205" s="28"/>
+      <c r="H1205" s="28"/>
+      <c r="J1205" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1205" s="28"/>
+      <c r="L1205" s="28"/>
+      <c r="M1205" s="28"/>
+      <c r="N1205" s="28"/>
+      <c r="O1205" s="28"/>
+      <c r="P1205" s="28"/>
+      <c r="Q1205" s="28"/>
+    </row>
+    <row r="1206" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1206" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1204" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1205" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1205" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1205" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1206" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1206" s="0" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B1206" s="0" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D1206" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1206" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1206" s="0" t="s">
+      <c r="G1206" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1207" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1207" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1208" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1208" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1208" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1208" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1209" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1207" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1208" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1208" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1208" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1209" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1209" s="0" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B1209" s="0" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D1209" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1209" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1209" s="0" t="s">
+      <c r="G1209" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1210" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1210" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1211" s="0" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1211" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1211" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1211" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1212" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1210" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1211" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1211" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1211" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1212" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1212" s="0" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B1212" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D1212" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1212" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1212" s="0" t="s">
+      <c r="G1212" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1213" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1213" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1214" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1214" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1214" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1214" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1215" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1213" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1214" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1214" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1214" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1215" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1215" s="0" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B1215" s="0" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D1215" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1215" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1215" s="0" t="s">
+      <c r="G1215" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1216" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1216" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1217" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D1217" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1217" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1217" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1218" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1216" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1217" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1217" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1217" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1218" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1218" s="0" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B1218" s="0" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D1218" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1218" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1218" s="0" t="s">
+      <c r="G1218" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1219" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1219" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1220" s="0" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D1220" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1220" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1220" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1221" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1219" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1220" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1220" s="0" t="s">
+      <c r="G1221" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1222" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1220" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1221" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1221" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B1221" s="0" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D1221" s="0" t="s">
+      <c r="G1222" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1223" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D1223" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E1221" s="0" t="s">
+      <c r="E1223" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="J1221" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1221" s="0" t="s">
+      <c r="J1223" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1223" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1221" s="30" t="s">
+      <c r="O1223" s="30" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1222" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1222" s="0" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B1222" s="0" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D1222" s="0" t="s">
+    <row r="1224" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1224" s="0" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D1224" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1222" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1222" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1223" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1223" s="0" t="s">
+      <c r="E1224" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1224" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1225" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1223" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1224" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1224" s="0" t="s">
+      <c r="G1225" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1226" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1224" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1225" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1225" s="0" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B1225" s="0" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D1225" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1225" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1225" s="0" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J1225" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1225" s="0" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="1226" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1226" s="0" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B1226" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D1226" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1226" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1226" s="0" t="s">
-        <v>1472</v>
-      </c>
-      <c r="J1226" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1226" s="0" t="s">
-        <v>1473</v>
+      <c r="G1226" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B1227" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D1227" s="0" t="s">
         <v>63</v>
@@ -31867,21 +31848,21 @@
         <v>20</v>
       </c>
       <c r="H1227" s="0" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="J1227" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1227" s="0" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B1228" s="0" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D1228" s="0" t="s">
         <v>63</v>
@@ -31890,21 +31871,21 @@
         <v>20</v>
       </c>
       <c r="H1228" s="0" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="J1228" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1228" s="0" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B1229" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D1229" s="0" t="s">
         <v>63</v>
@@ -31913,702 +31894,732 @@
         <v>20</v>
       </c>
       <c r="H1229" s="0" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="J1229" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1229" s="0" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1230" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1230" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1230" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D1230" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1230" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1230" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J1230" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1230" s="0" t="s">
         <v>1483</v>
       </c>
-      <c r="B1230" s="0" t="s">
+    </row>
+    <row r="1231" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="0" t="s">
         <v>1484</v>
       </c>
-      <c r="D1230" s="0" t="s">
+      <c r="B1231" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D1231" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1231" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1231" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J1231" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1231" s="0" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1232" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D1232" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1230" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1230" s="28"/>
-      <c r="J1230" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1231" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1231" s="0" t="s">
+      <c r="E1232" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1232" s="28"/>
+      <c r="J1232" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1233" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1231" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1232" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1232" s="0" t="s">
+      <c r="G1233" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1234" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1232" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1233" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="28" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B1233" s="28" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C1233" s="28"/>
-      <c r="D1233" s="28" t="s">
+      <c r="G1234" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="28" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1235" s="28" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C1235" s="28"/>
+      <c r="D1235" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E1233" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1233" s="28"/>
-      <c r="G1233" s="28"/>
-      <c r="H1233" s="28" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J1233" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1233" s="28"/>
-      <c r="L1233" s="28"/>
-      <c r="M1233" s="28"/>
-      <c r="N1233" s="28"/>
-      <c r="O1233" s="28"/>
-      <c r="P1233" s="28" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Q1233" s="28"/>
-    </row>
-    <row r="1234" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1234" s="0" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B1234" s="0" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D1234" s="0" t="s">
+      <c r="E1235" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1235" s="28"/>
+      <c r="G1235" s="28"/>
+      <c r="H1235" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J1235" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1235" s="28"/>
+      <c r="L1235" s="28"/>
+      <c r="M1235" s="28"/>
+      <c r="N1235" s="28"/>
+      <c r="O1235" s="28"/>
+      <c r="P1235" s="28" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q1235" s="28"/>
+    </row>
+    <row r="1236" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1236" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D1236" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1234" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1234" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1235" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1235" s="0" t="s">
+      <c r="E1236" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1236" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1237" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1235" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1236" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1236" s="0" t="s">
+      <c r="G1237" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1238" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1236" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1237" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1237" s="0" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B1237" s="0" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D1237" s="0" t="s">
+      <c r="G1238" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1239" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D1239" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1237" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1237" s="0" t="s">
-        <v>1493</v>
-      </c>
-      <c r="J1237" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1237" s="0" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="1238" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1238" s="0" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B1238" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D1238" s="0" t="s">
+      <c r="E1239" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1239" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J1239" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1239" s="0" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1240" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D1240" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1238" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1238" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1239" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1239" s="0" t="s">
+      <c r="E1240" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1240" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1241" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1239" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1240" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1240" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1240" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1241" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1241" s="0" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B1241" s="0" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D1241" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1241" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1241" s="0" t="s">
+      <c r="G1241" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1242" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1242" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1243" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D1243" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1243" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1243" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1244" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1242" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1243" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1243" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1243" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1244" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1244" s="0" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B1244" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D1244" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1244" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1244" s="0" t="s">
+      <c r="G1244" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1245" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1245" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1246" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D1246" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1246" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1246" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1247" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1245" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1246" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1246" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1246" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1247" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1247" s="0" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B1247" s="0" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1247" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1247" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1247" s="0" t="s">
+      <c r="G1247" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1248" s="0" t="s">
-        <v>754</v>
+        <v>151</v>
       </c>
       <c r="G1248" s="0" t="s">
-        <v>755</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1249" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="G1249" s="0" t="s">
-        <v>609</v>
+      <c r="A1249" s="0" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1249" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1249" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1249" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1249" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1250" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="G1250" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1251" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1251" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1252" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="G1250" s="0" t="s">
+      <c r="G1252" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="1251" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1251" s="0" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B1251" s="0" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D1251" s="0" t="s">
+    <row r="1253" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1253" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D1253" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E1251" s="0" t="s">
+      <c r="E1253" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="J1251" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1251" s="0" t="s">
+      <c r="J1253" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1253" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="O1251" s="0" t="s">
+      <c r="O1253" s="0" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1252" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1252" s="0" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B1252" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D1252" s="0" t="s">
+    <row r="1254" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1254" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D1254" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1252" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1252" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1253" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1253" s="0" t="s">
+      <c r="E1254" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1254" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1255" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1253" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1254" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1254" s="0" t="s">
+      <c r="G1255" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1256" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1254" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1255" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1255" s="0" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B1255" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D1255" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1255" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1255" s="0" t="s">
-        <v>1509</v>
-      </c>
-      <c r="J1255" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1255" s="0" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="1256" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1256" s="0" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B1256" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D1256" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1256" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1256" s="0" t="s">
-        <v>1513</v>
-      </c>
-      <c r="J1256" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1256" s="0" t="s">
-        <v>1514</v>
+      <c r="G1256" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1257" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1257" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D1257" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1257" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1257" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1257" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1257" s="0" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="0" t="s">
         <v>1515</v>
       </c>
-      <c r="B1257" s="0" t="s">
+      <c r="B1258" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="D1257" s="0" t="s">
+      <c r="D1258" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1258" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1258" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J1258" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1258" s="0" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1259" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D1259" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1257" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1257" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1258" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1258" s="0" t="s">
+      <c r="E1259" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1259" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1260" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1258" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1259" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1259" s="0" t="s">
+      <c r="G1260" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1261" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1259" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1260" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1260" s="0" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B1260" s="0" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D1260" s="0" t="s">
+      <c r="G1261" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1262" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D1262" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1260" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1260" s="0" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J1260" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1260" s="0" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1261" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1261" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B1261" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D1261" s="0" t="s">
+      <c r="E1262" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1262" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J1262" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1262" s="0" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1263" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D1263" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1261" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1261" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1262" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1262" s="0" t="s">
+      <c r="E1263" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1263" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1264" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1262" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1263" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1263" s="0" t="s">
+      <c r="G1264" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1265" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1263" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1264" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1264" s="0" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B1264" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D1264" s="0" t="s">
+      <c r="G1265" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1266" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D1266" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1264" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1264" s="0" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J1264" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1264" s="0" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1265" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1265" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B1265" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D1265" s="0" t="s">
+      <c r="E1266" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1266" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J1266" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1266" s="0" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1267" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D1267" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1265" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1265" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1266" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1266" s="0" t="s">
+      <c r="E1267" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1267" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1268" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1266" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1267" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1267" s="0" t="s">
+      <c r="G1268" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1269" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1267" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1268" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1268" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B1268" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D1268" s="0" t="s">
+      <c r="G1269" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1270" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D1270" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1268" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1268" s="0" t="s">
+      <c r="E1270" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1270" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="1269" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1269" s="0" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B1269" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D1269" s="0" t="s">
+    <row r="1271" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1271" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D1271" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1269" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1269" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1270" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1270" s="0" t="s">
+      <c r="E1271" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1271" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1272" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1270" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1271" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1271" s="0" t="s">
+      <c r="G1272" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1273" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1271" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1272" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1272" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B1272" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D1272" s="0" t="s">
+      <c r="G1273" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1274" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1274" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1272" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1272" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J1272" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1273" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1273" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B1273" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D1273" s="0" t="s">
+      <c r="E1274" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1274" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J1274" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1275" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D1275" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1273" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1273" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1274" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1274" s="0" t="s">
+      <c r="E1275" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1275" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1276" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1274" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1275" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1275" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1275" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1276" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1276" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B1276" s="0" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D1276" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1276" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1276" s="0" t="s">
+      <c r="G1276" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1277" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1277" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1278" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D1278" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1278" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1278" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1279" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1277" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1278" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1278" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1278" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1279" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1279" s="0" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B1279" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D1279" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1279" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1279" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1279" s="0" t="s">
+      <c r="G1279" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1280" s="0" t="s">
-        <v>986</v>
+        <v>151</v>
       </c>
       <c r="G1280" s="0" t="s">
-        <v>987</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1281" s="0" t="s">
-        <v>1542</v>
-      </c>
-      <c r="G1281" s="0" t="s">
-        <v>1543</v>
+      <c r="A1281" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1281" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1281" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1281" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1281" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1281" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1282" s="0" t="s">
-        <v>1544</v>
+        <v>986</v>
       </c>
       <c r="G1282" s="0" t="s">
-        <v>1545</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32620,314 +32631,284 @@
       </c>
     </row>
     <row r="1284" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="0" t="s">
+      <c r="F1284" s="0" t="s">
         <v>1548</v>
       </c>
-      <c r="B1284" s="0" t="s">
+      <c r="G1284" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="D1284" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1284" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1284" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1285" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G1285" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1286" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D1286" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1286" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1286" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1287" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1285" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1286" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1286" s="0" t="s">
+      <c r="G1287" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1288" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1286" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1287" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1287" s="0" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B1287" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D1287" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1287" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1287" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J1287" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1287" s="0" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1288" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1288" s="0" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B1288" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D1288" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1288" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1288" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="J1288" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1288" s="0" t="s">
-        <v>1556</v>
+      <c r="G1288" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1289" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1289" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D1289" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1289" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1289" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J1289" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1289" s="0" t="s">
         <v>1557</v>
       </c>
-      <c r="B1289" s="0" t="s">
+    </row>
+    <row r="1290" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="D1289" s="0" t="s">
+      <c r="B1290" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D1290" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1290" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1290" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J1290" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1290" s="0" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1291" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1291" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1289" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1289" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1290" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1290" s="0" t="s">
+      <c r="E1291" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1291" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1292" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1290" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1291" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1291" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1291" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1292" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1292" s="0" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B1292" s="0" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D1292" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1292" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1292" s="0" t="s">
+      <c r="G1292" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1293" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1293" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1294" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D1294" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1294" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1294" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1295" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1293" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1294" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1294" s="0" t="s">
+      <c r="G1295" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1296" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1294" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1295" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1295" s="0" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B1295" s="0" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D1295" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1295" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1295" s="0" t="s">
-        <v>1563</v>
-      </c>
-      <c r="J1295" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1295" s="0" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="1296" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1296" s="0" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B1296" s="0" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D1296" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1296" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1296" s="0" t="s">
-        <v>1567</v>
-      </c>
-      <c r="J1296" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1296" s="0" t="s">
-        <v>1568</v>
+      <c r="G1296" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1297" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1297" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1297" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D1297" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1297" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1297" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J1297" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1297" s="0" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="0" t="s">
         <v>1569</v>
       </c>
-      <c r="B1297" s="0" t="s">
+      <c r="B1298" s="0" t="s">
         <v>1570</v>
       </c>
-      <c r="D1297" s="0" t="s">
+      <c r="D1298" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1298" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1298" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J1298" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1298" s="0" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1299" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D1299" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1297" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1297" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1298" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1298" s="0" t="s">
+      <c r="E1299" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1299" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1300" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1298" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1299" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1299" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1299" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1300" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1300" s="0" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B1300" s="0" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D1300" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1300" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1300" s="0" t="s">
+      <c r="G1300" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1301" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1301" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1302" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D1302" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1302" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1302" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1303" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1301" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1302" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1302" s="0" t="s">
+      <c r="G1303" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1304" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1302" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1303" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1303" s="0" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B1303" s="0" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D1303" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="E1303" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="J1303" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1303" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="O1303" s="42" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="1304" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1304" s="0" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B1304" s="0" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D1304" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1304" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1304" s="0" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J1304" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1304" s="0" t="s">
-        <v>1578</v>
+      <c r="G1304" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1305" s="0" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B1305" s="0" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D1305" s="0" t="s">
         <v>636</v>
@@ -32947,815 +32928,825 @@
     </row>
     <row r="1306" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1306" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1306" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D1306" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1306" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1306" s="0" t="s">
         <v>1581</v>
       </c>
-      <c r="B1306" s="0" t="s">
+      <c r="J1306" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1306" s="0" t="s">
         <v>1582</v>
       </c>
-      <c r="D1306" s="0" t="s">
+    </row>
+    <row r="1307" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1307" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D1307" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1307" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1307" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1307" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="O1307" s="42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1308" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D1308" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1306" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1306" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1307" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1307" s="0" t="s">
+      <c r="E1308" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1308" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1309" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1307" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1308" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1308" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1308" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1309" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1309" s="0" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B1309" s="0" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D1309" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1309" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1309" s="0" t="s">
+      <c r="G1309" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1310" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1310" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1311" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D1311" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1311" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1311" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1312" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1310" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1311" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1311" s="0" t="s">
+      <c r="G1312" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1313" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1311" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1312" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1312" s="0" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B1312" s="0" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D1312" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1312" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1312" s="0" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J1312" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1312" s="0" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1313" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1313" s="0" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B1313" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D1313" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1313" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1313" s="0" t="s">
-        <v>1590</v>
-      </c>
-      <c r="J1313" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1313" s="0" t="s">
-        <v>1591</v>
+      <c r="G1313" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1314" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1314" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D1314" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1314" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1314" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J1314" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1314" s="0" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="0" t="s">
         <v>1592</v>
       </c>
-      <c r="B1314" s="0" t="s">
+      <c r="B1315" s="0" t="s">
         <v>1593</v>
       </c>
-      <c r="D1314" s="0" t="s">
+      <c r="D1315" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1315" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1315" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J1315" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1315" s="0" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1316" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1316" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1314" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1314" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1315" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1315" s="0" t="s">
+      <c r="E1316" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1316" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1317" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1315" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1316" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1316" s="0" t="s">
+      <c r="G1317" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1318" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1316" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1317" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1317" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B1317" s="0" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D1317" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="E1317" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="J1317" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1317" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="O1317" s="43" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="1318" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1318" s="0" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B1318" s="0" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D1318" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1318" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1318" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J1318" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1318" s="0" t="s">
-        <v>1598</v>
+      <c r="G1318" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1319" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1319" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1319" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1319" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1319" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1319" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1319" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="O1319" s="43" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="0" t="s">
         <v>1599</v>
       </c>
-      <c r="B1319" s="0" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D1319" s="0" t="s">
+      <c r="B1320" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1320" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1320" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1320" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J1320" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1320" s="0" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1321" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D1321" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1319" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1319" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1320" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1320" s="0" t="s">
+      <c r="E1321" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1321" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1322" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1320" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1321" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1321" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1321" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1322" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1322" s="0" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B1322" s="0" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D1322" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1322" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1322" s="0" t="s">
+      <c r="G1322" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1323" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1323" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1324" s="0" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D1324" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1324" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1324" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1325" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1323" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1324" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1324" s="0" t="s">
+      <c r="G1325" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1326" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1324" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1325" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1325" s="0" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B1325" s="0" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D1325" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1325" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1325" s="0" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J1325" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1325" s="0" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="1326" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1326" s="0" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B1326" s="0" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D1326" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1326" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1326" s="0" t="s">
-        <v>1608</v>
-      </c>
-      <c r="J1326" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1326" s="0" t="s">
-        <v>1609</v>
+      <c r="G1326" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1327" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B1327" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D1327" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1327" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1327" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J1327" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1327" s="0" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="0" t="s">
         <v>1610</v>
       </c>
-      <c r="B1327" s="0" t="s">
+      <c r="B1328" s="0" t="s">
         <v>1611</v>
       </c>
-      <c r="D1327" s="0" t="s">
+      <c r="D1328" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1328" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1328" s="0" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J1328" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1328" s="0" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B1329" s="0" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1329" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1327" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1327" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1328" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1328" s="0" t="s">
+      <c r="E1329" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1329" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1330" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1328" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1329" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1329" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1329" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1330" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1330" s="0" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B1330" s="0" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D1330" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1330" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1330" s="0" t="s">
+      <c r="G1330" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1331" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1331" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1332" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1332" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1332" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1332" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1333" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1331" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1332" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1332" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1332" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1333" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1333" s="0" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B1333" s="0" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D1333" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1333" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1333" s="0" t="s">
+      <c r="G1333" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1334" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1334" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1335" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D1335" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1335" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1335" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1336" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1334" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1335" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1335" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1335" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1336" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1336" s="0" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B1336" s="0" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D1336" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1336" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1336" s="0" t="s">
+      <c r="G1336" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1337" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1337" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1338" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B1338" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D1338" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1338" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1338" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1339" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1337" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1338" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1338" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1338" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1339" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1339" s="0" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B1339" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="D1339" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1339" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1339" s="0" t="s">
-        <v>45</v>
+      <c r="G1339" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1340" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1340" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1341" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1341" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1341" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1341" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1341" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1342" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1340" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1341" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1341" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1341" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1342" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1342" s="0" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B1342" s="0" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D1342" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1342" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1342" s="0" t="s">
+      <c r="G1342" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1343" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1343" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="0" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1344" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1344" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1344" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1344" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1345" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1343" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1344" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1344" s="0" t="s">
+      <c r="G1345" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1346" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1344" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1345" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1345" s="0" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B1345" s="0" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D1345" s="0" t="s">
+      <c r="G1346" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1347" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1347" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1345" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1345" s="0" t="s">
-        <v>1623</v>
-      </c>
-      <c r="J1345" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1346" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1346" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B1346" s="0" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D1346" s="0" t="s">
+      <c r="E1347" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1347" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J1347" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1348" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D1348" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1346" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1346" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1347" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1347" s="0" t="s">
+      <c r="E1348" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1348" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1349" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1347" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1348" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1348" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1348" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1349" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1349" s="0" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B1349" s="0" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D1349" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1349" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1349" s="0" t="s">
+      <c r="G1349" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1350" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1350" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1351" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D1351" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1351" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1351" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1352" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1350" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1351" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1351" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1351" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1352" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1352" s="0" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B1352" s="0" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D1352" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1352" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1352" s="0" t="s">
+      <c r="G1352" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1353" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1353" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1354" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D1354" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1354" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1354" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1355" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1353" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1354" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1354" s="0" t="s">
+      <c r="G1355" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1356" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1354" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1355" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1355" s="0" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B1355" s="0" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D1355" s="0" t="s">
+      <c r="G1356" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1357" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1357" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1355" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1355" s="0" t="s">
-        <v>1623</v>
-      </c>
-      <c r="J1355" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1356" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1356" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B1356" s="0" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D1356" s="0" t="s">
+      <c r="E1357" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1357" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J1357" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1358" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1358" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1356" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1356" s="33"/>
-      <c r="J1356" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1357" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1357" s="0" t="s">
+      <c r="E1358" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1358" s="33"/>
+      <c r="J1358" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1359" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1357" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1358" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1358" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1358" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1358" s="33"/>
-    </row>
-    <row r="1359" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1359" s="0" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B1359" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D1359" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1359" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1359" s="33"/>
-      <c r="J1359" s="0" t="s">
-        <v>45</v>
+      <c r="G1359" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1360" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1360" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1360" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1360" s="33"/>
+    </row>
+    <row r="1361" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1361" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1361" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1361" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1361" s="33"/>
+      <c r="J1361" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1362" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1360" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1360" s="33"/>
-    </row>
-    <row r="1361" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1361" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1361" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1362" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1362" s="0" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B1362" s="0" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D1362" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1362" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1362" s="0" t="s">
-        <v>45</v>
-      </c>
+      <c r="G1362" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1362" s="33"/>
     </row>
     <row r="1363" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1363" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1363" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1364" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D1364" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1364" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1364" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1365" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1363" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1364" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1364" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1364" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1365" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1365" s="0" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B1365" s="0" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D1365" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1365" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1365" s="33"/>
-      <c r="J1365" s="0" t="s">
-        <v>45</v>
+      <c r="G1365" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1366" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1366" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1367" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1367" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1367" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1367" s="33"/>
+      <c r="J1367" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1368" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1366" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1367" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1367" s="0" t="s">
+      <c r="G1368" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1369" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1367" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1368" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1368" s="0" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B1368" s="0" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D1368" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1368" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1368" s="33"/>
-      <c r="J1368" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1369" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1369" s="0" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B1369" s="0" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D1369" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1369" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1369" s="33"/>
-      <c r="J1369" s="0" t="s">
-        <v>21</v>
+      <c r="G1369" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1370" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33784,52 +33775,40 @@
         <v>1646</v>
       </c>
       <c r="D1371" s="0" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E1371" s="0" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="G1371" s="33"/>
-      <c r="H1371" s="0" t="s">
-        <v>1646</v>
-      </c>
       <c r="J1371" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="P1371" s="0" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="1372" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1372" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1372" s="0" t="s">
         <v>1648</v>
       </c>
-      <c r="B1372" s="0" t="s">
-        <v>1649</v>
-      </c>
       <c r="D1372" s="0" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="E1372" s="0" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="G1372" s="33"/>
-      <c r="H1372" s="0" t="s">
-        <v>1649</v>
-      </c>
       <c r="J1372" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="P1372" s="0" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="1373" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1373" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B1373" s="0" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D1373" s="0" t="s">
         <v>63</v>
@@ -33839,112 +33818,128 @@
       </c>
       <c r="G1373" s="33"/>
       <c r="H1373" s="0" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="J1373" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1373" s="0" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1374" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1374" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B1374" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D1374" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1374" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1374" s="33"/>
+      <c r="H1374" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J1374" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1374" s="0" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="0" t="s">
         <v>1655</v>
       </c>
-      <c r="B1374" s="0" t="s">
+      <c r="B1375" s="0" t="s">
         <v>1656</v>
       </c>
-      <c r="D1374" s="0" t="s">
+      <c r="D1375" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1375" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1375" s="33"/>
+      <c r="H1375" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J1375" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1375" s="0" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1376" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D1376" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1374" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1374" s="33"/>
-      <c r="J1374" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1375" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1375" s="0" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G1375" s="0" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H1375" s="33"/>
-    </row>
-    <row r="1376" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1376" s="0" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G1376" s="33" t="s">
-        <v>1660</v>
+      <c r="E1376" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1376" s="33"/>
+      <c r="J1376" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1377" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1377" s="0" t="s">
+      <c r="F1377" s="0" t="s">
         <v>1661</v>
       </c>
-      <c r="B1377" s="0" t="s">
+      <c r="G1377" s="0" t="s">
         <v>1662</v>
       </c>
-      <c r="D1377" s="0" t="s">
+      <c r="H1377" s="33"/>
+    </row>
+    <row r="1378" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1378" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G1378" s="33" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1379" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D1379" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E1377" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1377" s="33"/>
-      <c r="H1377" s="0" t="s">
-        <v>1663</v>
-      </c>
-      <c r="J1377" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1377" s="0" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1378" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1378" s="0" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B1378" s="0" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D1378" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1378" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1378" s="33"/>
-      <c r="H1378" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1378" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J1378" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1379" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1379" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G1379" s="33" t="s">
+      <c r="E1379" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1379" s="33"/>
+      <c r="H1379" s="0" t="s">
         <v>1667</v>
+      </c>
+      <c r="J1379" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1379" s="0" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1380" s="0" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1380" s="0" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D1380" s="0" t="s">
         <v>33</v>
@@ -33952,11 +33947,12 @@
       <c r="E1380" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="G1380" s="33"/>
       <c r="H1380" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1380" s="35" t="s">
-        <v>1387</v>
+      <c r="I1380" s="0" t="s">
+        <v>1391</v>
       </c>
       <c r="J1380" s="0" t="s">
         <v>21</v>
@@ -33964,18 +33960,18 @@
     </row>
     <row r="1381" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1381" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G1381" s="0" t="s">
-        <v>1667</v>
+        <v>1391</v>
+      </c>
+      <c r="G1381" s="33" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1382" s="0" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="B1382" s="0" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D1382" s="0" t="s">
         <v>33</v>
@@ -33983,12 +33979,11 @@
       <c r="E1382" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1382" s="33"/>
       <c r="H1382" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1382" s="0" t="s">
-        <v>1387</v>
+      <c r="I1382" s="35" t="s">
+        <v>1391</v>
       </c>
       <c r="J1382" s="0" t="s">
         <v>21</v>
@@ -33996,18 +33991,18 @@
     </row>
     <row r="1383" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1383" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G1383" s="33" t="s">
-        <v>1667</v>
+        <v>1391</v>
+      </c>
+      <c r="G1383" s="0" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1384" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1384" s="0" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B1384" s="0" t="s">
-        <v>1393</v>
+        <v>1675</v>
       </c>
       <c r="D1384" s="0" t="s">
         <v>33</v>
@@ -34020,7 +34015,7 @@
         <v>34</v>
       </c>
       <c r="I1384" s="0" t="s">
-        <v>373</v>
+        <v>1391</v>
       </c>
       <c r="J1384" s="0" t="s">
         <v>21</v>
@@ -34028,26 +34023,42 @@
     </row>
     <row r="1385" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1385" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G1385" s="33" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1386" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D1386" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1386" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1386" s="33"/>
+      <c r="H1386" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1386" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="G1385" s="33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="1386" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1386" s="0" t="s">
-        <v>1673</v>
-      </c>
-      <c r="G1386" s="33" t="s">
-        <v>1674</v>
+      <c r="J1386" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1387" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1387" s="0" t="s">
-        <v>1675</v>
+        <v>373</v>
       </c>
       <c r="G1387" s="33" t="s">
-        <v>1676</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1388" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34078,7 +34089,7 @@
       <c r="F1391" s="0" t="s">
         <v>1683</v>
       </c>
-      <c r="G1391" s="0" t="s">
+      <c r="G1391" s="33" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -34086,7 +34097,7 @@
       <c r="F1392" s="0" t="s">
         <v>1685</v>
       </c>
-      <c r="G1392" s="0" t="s">
+      <c r="G1392" s="33" t="s">
         <v>1686</v>
       </c>
     </row>
@@ -34100,246 +34111,222 @@
     </row>
     <row r="1394" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1394" s="0" t="s">
-        <v>1387</v>
+        <v>1689</v>
       </c>
       <c r="G1394" s="0" t="s">
-        <v>789</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1395" s="0" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B1395" s="0" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D1395" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1395" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1395" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1395" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1395" s="0" t="s">
-        <v>21</v>
+      <c r="F1395" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G1395" s="0" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1396" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G1396" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B1397" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D1397" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1397" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1397" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1397" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G1396" s="0" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="1397" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1397" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G1397" s="0" t="s">
-        <v>1120</v>
+      <c r="J1397" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1398" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G1398" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1399" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1399" s="0" t="s">
-        <v>363</v>
+        <v>1119</v>
       </c>
       <c r="G1399" s="0" t="s">
-        <v>364</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1400" s="0" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B1400" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1400" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1400" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1400" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1400" s="0" t="s">
-        <v>21</v>
+      <c r="F1400" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1400" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1401" s="0" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="G1401" s="0" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1402" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1402" s="0" t="s">
-        <v>360</v>
+      <c r="A1402" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1402" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1402" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1402" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1402" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1402" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1403" s="0" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="G1403" s="0" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1404" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G1404" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1405" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G1405" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1406" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G1406" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1407" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G1407" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1408" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G1408" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1409" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G1409" s="0" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1410" s="0" t="s">
-        <v>1692</v>
+        <v>371</v>
       </c>
       <c r="G1410" s="0" t="s">
-        <v>1693</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1411" s="0" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B1411" s="0" t="s">
-        <v>1695</v>
-      </c>
-      <c r="D1411" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1411" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1411" s="0" t="s">
-        <v>21</v>
+      <c r="F1411" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1411" s="0" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="1412" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1412" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G1412" s="0" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1413" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1413" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1413" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1413" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1414" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1412" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1413" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1413" s="0" t="s">
+      <c r="G1414" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1415" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1413" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1414" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1414" s="0" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B1414" s="0" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D1414" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1414" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1414" s="0" t="s">
-        <v>1698</v>
-      </c>
-      <c r="J1414" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1414" s="0" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1415" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1415" s="0" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B1415" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1415" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1415" s="0" t="s">
-        <v>191</v>
+      <c r="G1415" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1416" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1416" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1416" s="0" t="s">
         <v>1701</v>
-      </c>
-      <c r="B1416" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1416" s="0" t="s">
-        <v>1700</v>
       </c>
       <c r="D1416" s="0" t="s">
         <v>63</v>
@@ -34348,47 +34335,38 @@
         <v>20</v>
       </c>
       <c r="H1416" s="0" t="s">
-        <v>193</v>
+        <v>1702</v>
       </c>
       <c r="J1416" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="P1416" s="0" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="1417" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1417" s="0" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="B1417" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1417" s="0" t="s">
-        <v>1700</v>
+        <v>189</v>
       </c>
       <c r="D1417" s="0" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="E1417" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1417" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1417" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1417" s="0" t="s">
-        <v>1703</v>
+        <v>191</v>
       </c>
     </row>
     <row r="1418" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1418" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1418" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1418" s="0" t="s">
         <v>1704</v>
-      </c>
-      <c r="B1418" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1418" s="0" t="s">
-        <v>1700</v>
       </c>
       <c r="D1418" s="0" t="s">
         <v>63</v>
@@ -34397,13 +34375,10 @@
         <v>20</v>
       </c>
       <c r="H1418" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J1418" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1418" s="0" t="s">
-        <v>1705</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1419" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34411,10 +34386,10 @@
         <v>1706</v>
       </c>
       <c r="B1419" s="0" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="C1419" s="0" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D1419" s="0" t="s">
         <v>63</v>
@@ -34423,7 +34398,7 @@
         <v>20</v>
       </c>
       <c r="H1419" s="0" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="J1419" s="0" t="s">
         <v>21</v>
@@ -34437,19 +34412,19 @@
         <v>1708</v>
       </c>
       <c r="B1420" s="0" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C1420" s="0" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D1420" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E1420" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H1420" s="0" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="J1420" s="0" t="s">
         <v>21</v>
@@ -34463,19 +34438,19 @@
         <v>1710</v>
       </c>
       <c r="B1421" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1421" s="0" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D1421" s="0" t="s">
-        <v>1238</v>
+        <v>63</v>
       </c>
       <c r="E1421" s="0" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H1421" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J1421" s="0" t="s">
         <v>21</v>
@@ -34489,10 +34464,10 @@
         <v>1712</v>
       </c>
       <c r="B1422" s="0" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="C1422" s="0" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="D1422" s="0" t="s">
         <v>33</v>
@@ -34501,7 +34476,7 @@
         <v>20</v>
       </c>
       <c r="H1422" s="0" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J1422" s="0" t="s">
         <v>21</v>
@@ -34511,169 +34486,175 @@
       </c>
     </row>
     <row r="1423" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1423" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1423" s="0" t="s">
-        <v>226</v>
+      <c r="A1423" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1423" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1423" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D1423" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E1423" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1423" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1423" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1423" s="0" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1424" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1424" s="0" t="s">
-        <v>212</v>
+      <c r="A1424" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1424" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1424" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D1424" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1424" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1424" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1424" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1424" s="0" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="1425" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1425" s="0" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G1425" s="0" t="s">
-        <v>1714</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1426" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1426" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G1426" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="1427" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1427" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G1427" s="0" t="s">
-        <v>443</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1428" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1428" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G1428" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1429" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1429" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G1429" s="0" t="s">
-        <v>220</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1430" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1430" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G1430" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1431" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1431" s="0" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G1431" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1432" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1432" s="0" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G1432" s="0" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1433" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1433" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="G1433" s="0" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1434" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1434" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G1434" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1435" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1435" s="0" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G1435" s="0" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1436" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1436" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1436" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1437" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1437" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1438" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="G1436" s="0" t="s">
+      <c r="G1438" s="0" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="1437" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1437" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B1437" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D1437" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1437" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1437" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1437" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1437" s="0" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1438" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1438" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B1438" s="0" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D1438" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1438" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1438" s="0" t="s">
-        <v>1721</v>
-      </c>
-      <c r="J1438" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1438" s="0" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="1439" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1439" s="0" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B1439" s="0" t="s">
-        <v>1555</v>
+        <v>1720</v>
       </c>
       <c r="D1439" s="0" t="s">
         <v>63</v>
@@ -34682,21 +34663,21 @@
         <v>20</v>
       </c>
       <c r="H1439" s="0" t="s">
-        <v>1555</v>
+        <v>1721</v>
       </c>
       <c r="J1439" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1439" s="0" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1440" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1440" s="0" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B1440" s="0" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D1440" s="0" t="s">
         <v>63</v>
@@ -34705,21 +34686,21 @@
         <v>20</v>
       </c>
       <c r="H1440" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J1440" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1440" s="0" t="s">
         <v>1726</v>
-      </c>
-      <c r="J1440" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1440" s="0" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1441" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1441" s="0" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B1441" s="0" t="s">
-        <v>1729</v>
+        <v>1559</v>
       </c>
       <c r="D1441" s="0" t="s">
         <v>63</v>
@@ -34728,21 +34709,21 @@
         <v>20</v>
       </c>
       <c r="H1441" s="0" t="s">
-        <v>1729</v>
+        <v>1559</v>
       </c>
       <c r="J1441" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1441" s="0" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1442" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1442" s="0" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B1442" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D1442" s="0" t="s">
         <v>63</v>
@@ -34751,21 +34732,21 @@
         <v>20</v>
       </c>
       <c r="H1442" s="0" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="J1442" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1442" s="0" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1443" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1443" s="0" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B1443" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D1443" s="0" t="s">
         <v>63</v>
@@ -34774,21 +34755,21 @@
         <v>20</v>
       </c>
       <c r="H1443" s="0" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J1443" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1443" s="0" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1444" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1444" s="0" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B1444" s="0" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D1444" s="0" t="s">
         <v>63</v>
@@ -34797,22 +34778,21 @@
         <v>20</v>
       </c>
       <c r="H1444" s="0" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I1444" s="33"/>
+        <v>1736</v>
+      </c>
       <c r="J1444" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1444" s="0" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1445" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1445" s="0" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B1445" s="0" t="s">
-        <v>230</v>
+        <v>1739</v>
       </c>
       <c r="D1445" s="0" t="s">
         <v>63</v>
@@ -34821,21 +34801,21 @@
         <v>20</v>
       </c>
       <c r="H1445" s="0" t="s">
-        <v>230</v>
+        <v>1739</v>
       </c>
       <c r="J1445" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1445" s="0" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1446" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1446" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1446" s="0" t="s">
         <v>1742</v>
-      </c>
-      <c r="B1446" s="0" t="s">
-        <v>1743</v>
       </c>
       <c r="D1446" s="0" t="s">
         <v>63</v>
@@ -34844,22 +34824,22 @@
         <v>20</v>
       </c>
       <c r="H1446" s="0" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="I1446" s="33"/>
       <c r="J1446" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1446" s="0" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1447" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1447" s="0" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1447" s="0" t="s">
-        <v>1472</v>
+        <v>230</v>
       </c>
       <c r="D1447" s="0" t="s">
         <v>63</v>
@@ -34868,21 +34848,21 @@
         <v>20</v>
       </c>
       <c r="H1447" s="0" t="s">
-        <v>1472</v>
+        <v>230</v>
       </c>
       <c r="J1447" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1447" s="0" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1448" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1448" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1448" s="0" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1448" s="0" t="s">
-        <v>1748</v>
       </c>
       <c r="D1448" s="0" t="s">
         <v>63</v>
@@ -34890,63 +34870,63 @@
       <c r="E1448" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1448" s="33"/>
       <c r="H1448" s="0" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I1448" s="33"/>
       <c r="J1448" s="0" t="s">
         <v>21</v>
       </c>
       <c r="P1448" s="0" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1449" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1449" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1449" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D1449" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1449" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1449" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J1449" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1449" s="0" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1449" s="0" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D1449" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E1449" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1449" s="0" t="s">
-        <v>1751</v>
-      </c>
-      <c r="J1449" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1449" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="1450" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1450" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1450" s="0" t="s">
         <v>1752</v>
       </c>
-      <c r="B1450" s="0" t="s">
-        <v>1753</v>
-      </c>
       <c r="D1450" s="0" t="s">
-        <v>1238</v>
+        <v>63</v>
       </c>
       <c r="E1450" s="0" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G1450" s="33"/>
       <c r="H1450" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1450" s="33"/>
+      <c r="J1450" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1450" s="0" t="s">
         <v>1753</v>
-      </c>
-      <c r="J1450" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1450" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="1451" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35032,6 +35012,7 @@
       <c r="E1454" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="G1454" s="33"/>
       <c r="H1454" s="0" t="s">
         <v>1761</v>
       </c>
@@ -35070,7 +35051,7 @@
         <v>1764</v>
       </c>
       <c r="B1456" s="0" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="D1456" s="0" t="s">
         <v>1238</v>
@@ -35079,7 +35060,7 @@
         <v>58</v>
       </c>
       <c r="H1456" s="0" t="s">
-        <v>1761</v>
+        <v>1765</v>
       </c>
       <c r="J1456" s="0" t="s">
         <v>45</v>
@@ -35090,10 +35071,10 @@
     </row>
     <row r="1457" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1457" s="0" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1457" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D1457" s="0" t="s">
         <v>1238</v>
@@ -35102,7 +35083,7 @@
         <v>58</v>
       </c>
       <c r="H1457" s="0" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="J1457" s="0" t="s">
         <v>45</v>
@@ -35113,22 +35094,25 @@
     </row>
     <row r="1458" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1458" s="0" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1458" s="0" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D1458" s="0" t="s">
-        <v>63</v>
+        <v>1238</v>
       </c>
       <c r="E1458" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H1458" s="0" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="J1458" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="M1458" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1459" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35139,16 +35123,19 @@
         <v>1770</v>
       </c>
       <c r="D1459" s="0" t="s">
-        <v>63</v>
+        <v>1238</v>
       </c>
       <c r="E1459" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H1459" s="0" t="s">
         <v>1770</v>
       </c>
       <c r="J1459" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="M1459" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1460" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35199,10 +35186,16 @@
         <v>1776</v>
       </c>
       <c r="D1462" s="0" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="E1462" s="0" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="H1462" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J1462" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1463" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35210,80 +35203,68 @@
         <v>1777</v>
       </c>
       <c r="B1463" s="0" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C1463" s="0" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="D1463" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1463" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1463" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J1463" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1464" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1464" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1464" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1465" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1465" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1465" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E1463" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1463" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1464" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1464" s="0" t="s">
+      <c r="E1465" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1465" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1466" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="G1464" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1465" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1465" s="0" t="s">
+      <c r="G1466" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1467" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="G1465" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1466" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1466" s="0" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1466" s="0" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C1466" s="0" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D1466" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1466" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1466" s="0" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J1466" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="1467" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1467" s="0" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B1467" s="0" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C1467" s="0" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D1467" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1467" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1467" s="0" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J1467" s="0" t="s">
+      <c r="G1467" s="0" t="s">
         <v>45</v>
       </c>
     </row>
@@ -35295,41 +35276,53 @@
         <v>1783</v>
       </c>
       <c r="C1468" s="0" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="D1468" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E1468" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H1468" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1468" s="0" t="s">
-        <v>1679</v>
+        <v>1784</v>
       </c>
       <c r="J1468" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="1469" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1469" s="0" t="s">
-        <v>1679</v>
-      </c>
-      <c r="G1469" s="0" t="s">
-        <v>1680</v>
+      <c r="A1469" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1469" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1469" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1469" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1469" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1469" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J1469" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="1470" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1470" s="0" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B1470" s="0" t="s">
-        <v>1070</v>
+        <v>1787</v>
       </c>
       <c r="C1470" s="0" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="D1470" s="0" t="s">
         <v>33</v>
@@ -35341,7 +35334,7 @@
         <v>34</v>
       </c>
       <c r="I1470" s="0" t="s">
-        <v>357</v>
+        <v>1683</v>
       </c>
       <c r="J1470" s="0" t="s">
         <v>45</v>
@@ -35349,21 +35342,21 @@
     </row>
     <row r="1471" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1471" s="0" t="s">
-        <v>357</v>
+        <v>1683</v>
       </c>
       <c r="G1471" s="0" t="s">
-        <v>358</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1472" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1472" s="0" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="B1472" s="0" t="s">
-        <v>1786</v>
+        <v>1070</v>
       </c>
       <c r="C1472" s="0" t="s">
-        <v>1775</v>
+        <v>1779</v>
       </c>
       <c r="D1472" s="0" t="s">
         <v>33</v>
@@ -35371,7 +35364,6 @@
       <c r="E1472" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1472" s="33"/>
       <c r="H1472" s="0" t="s">
         <v>34</v>
       </c>
@@ -35386,16 +35378,19 @@
       <c r="F1473" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="G1473" s="33" t="s">
+      <c r="G1473" s="0" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="1474" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1474" s="0" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B1474" s="0" t="s">
-        <v>1788</v>
+        <v>1790</v>
+      </c>
+      <c r="C1474" s="0" t="s">
+        <v>1779</v>
       </c>
       <c r="D1474" s="0" t="s">
         <v>33</v>
@@ -35407,98 +35402,114 @@
       <c r="H1474" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="I1474" s="0" t="s">
+        <v>357</v>
+      </c>
       <c r="J1474" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1474" s="0" t="s">
-        <v>1789</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1475" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1475" s="0" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="G1475" s="33" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1476" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1476" s="0" t="s">
-        <v>1790</v>
-      </c>
-      <c r="G1476" s="0" t="s">
+      <c r="A1476" s="0" t="s">
         <v>1791</v>
+      </c>
+      <c r="B1476" s="0" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D1476" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1476" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1476" s="33"/>
+      <c r="H1476" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1476" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1476" s="0" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="1477" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1477" s="0" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G1477" s="0" t="s">
-        <v>1793</v>
+        <v>398</v>
+      </c>
+      <c r="G1477" s="33" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="1478" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1478" s="0" t="s">
-        <v>1012</v>
+        <v>1794</v>
       </c>
       <c r="G1478" s="0" t="s">
-        <v>1013</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1479" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1479" s="0" t="s">
-        <v>1020</v>
+        <v>1796</v>
       </c>
       <c r="G1479" s="0" t="s">
-        <v>1021</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1480" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1480" s="0" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1480" s="0" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D1480" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1480" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1480" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1480" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1480" s="0" t="s">
-        <v>1796</v>
+      <c r="F1480" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1480" s="0" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="1481" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1481" s="0" t="s">
-        <v>398</v>
+        <v>1020</v>
       </c>
       <c r="G1481" s="0" t="s">
-        <v>399</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1482" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1482" s="0" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G1482" s="34" t="s">
+      <c r="A1482" s="0" t="s">
         <v>1798</v>
+      </c>
+      <c r="B1482" s="0" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1482" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1482" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1482" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1482" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1482" s="0" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="1483" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1483" s="0" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G1483" s="34" t="s">
-        <v>1800</v>
+        <v>398</v>
+      </c>
+      <c r="G1483" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="1484" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35526,401 +35537,401 @@
       </c>
     </row>
     <row r="1487" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1487" s="0" t="s">
+      <c r="F1487" s="0" t="s">
         <v>1807</v>
       </c>
-      <c r="B1487" s="0" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D1487" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1487" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1487" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1487" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1487" s="0" t="s">
+      <c r="G1487" s="34" t="s">
         <v>1808</v>
       </c>
     </row>
     <row r="1488" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1488" s="0" t="s">
-        <v>1082</v>
+        <v>1809</v>
       </c>
       <c r="G1488" s="34" t="s">
-        <v>1083</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1489" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1489" s="0" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G1489" s="34" t="s">
-        <v>1089</v>
+      <c r="A1489" s="0" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1489" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1489" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1489" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1489" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1489" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1489" s="0" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="1490" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1490" s="0" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="G1490" s="34" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1491" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1491" s="0" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B1491" s="0" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D1491" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1491" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1491" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1491" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1491" s="0" t="s">
-        <v>1810</v>
+      <c r="F1491" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G1491" s="34" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="1492" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1492" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1492" s="0" t="s">
-        <v>358</v>
+        <v>1092</v>
+      </c>
+      <c r="G1492" s="34" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="1493" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F1493" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="G1493" s="0" t="s">
-        <v>360</v>
+      <c r="A1493" s="0" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1493" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D1493" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1493" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1493" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1493" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1493" s="0" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="1494" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1494" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G1494" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1495" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1495" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G1495" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1496" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1496" s="0" t="s">
-        <v>1074</v>
+        <v>361</v>
       </c>
       <c r="G1496" s="0" t="s">
-        <v>1075</v>
+        <v>362</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1497" s="0" t="s">
-        <v>1082</v>
+        <v>363</v>
       </c>
       <c r="G1497" s="0" t="s">
-        <v>1083</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1498" s="0" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="G1498" s="0" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1499" s="0" t="s">
-        <v>1811</v>
+        <v>1082</v>
       </c>
       <c r="G1499" s="0" t="s">
-        <v>1812</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F1500" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G1500" s="0" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1501" s="0" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G1501" s="0" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F1502" s="0" t="s">
         <v>1092</v>
       </c>
-      <c r="G1500" s="0" t="s">
+      <c r="G1502" s="0" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="1501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1501" s="0" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B1501" s="0" t="s">
+    <row r="1503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="0" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1503" s="0" t="s">
         <v>1106</v>
       </c>
-      <c r="D1501" s="0" t="s">
+      <c r="D1503" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E1501" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1501" s="0" t="s">
+      <c r="E1503" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1503" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1501" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1501" s="0" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1502" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="G1502" s="0" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="1503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1503" s="0" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G1503" s="0" t="s">
-        <v>1110</v>
+      <c r="J1503" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1503" s="0" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1504" s="0" t="s">
-        <v>351</v>
+        <v>485</v>
       </c>
       <c r="G1504" s="0" t="s">
-        <v>352</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1505" s="0" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G1505" s="0" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1506" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G1506" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1507" s="0" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B1507" s="0" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D1507" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1507" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1507" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1507" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1507" s="0" t="s">
-        <v>1814</v>
+      <c r="F1507" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G1507" s="0" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1508" s="0" t="s">
-        <v>485</v>
+        <v>353</v>
       </c>
       <c r="G1508" s="0" t="s">
-        <v>486</v>
+        <v>354</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1509" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="G1509" s="0" t="s">
-        <v>352</v>
+      <c r="A1509" s="0" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1509" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1509" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1509" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1509" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1509" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1509" s="0" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1510" s="0" t="s">
-        <v>353</v>
+        <v>485</v>
       </c>
       <c r="G1510" s="0" t="s">
-        <v>354</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1511" s="0" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B1511" s="0" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D1511" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1511" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1511" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1511" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1511" s="0" t="s">
-        <v>1818</v>
+      <c r="F1511" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1511" s="0" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="1512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1512" s="0" t="s">
-        <v>1819</v>
+        <v>353</v>
       </c>
       <c r="G1512" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="0" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="1513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1513" s="0" t="s">
+      <c r="B1513" s="0" t="s">
         <v>1821</v>
       </c>
-      <c r="G1513" s="0" t="s">
+      <c r="D1513" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1513" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1513" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1513" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1513" s="0" t="s">
         <v>1822</v>
       </c>
     </row>
     <row r="1514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1514" s="0" t="s">
+      <c r="F1514" s="0" t="s">
         <v>1823</v>
       </c>
-      <c r="B1514" s="0" t="s">
+      <c r="G1514" s="0" t="s">
         <v>1824</v>
-      </c>
-      <c r="D1514" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1514" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1514" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1514" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1514" s="0" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1515" s="0" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G1515" s="0" t="s">
         <v>1826</v>
       </c>
-      <c r="G1515" s="0" t="s">
+    </row>
+    <row r="1516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="0" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="1516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1516" s="0" t="s">
+      <c r="B1516" s="0" t="s">
         <v>1828</v>
       </c>
-      <c r="G1516" s="0" t="s">
+      <c r="D1516" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1516" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1516" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1516" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1516" s="0" t="s">
         <v>1829</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1517" s="0" t="s">
-        <v>1072</v>
+        <v>1830</v>
       </c>
       <c r="G1517" s="0" t="s">
-        <v>1073</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1518" s="0" t="s">
-        <v>1074</v>
+        <v>1832</v>
       </c>
       <c r="G1518" s="0" t="s">
-        <v>1075</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1519" s="0" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="G1519" s="0" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1520" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G1520" s="0" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1521" s="0" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G1521" s="0" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1522" s="0" t="s">
         <v>1088</v>
       </c>
-      <c r="G1520" s="0" t="s">
+      <c r="G1522" s="0" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="0" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B1521" s="0" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D1521" s="0" t="s">
+    <row r="1523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="0" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1523" s="0" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1523" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="E1521" s="0" t="s">
+      <c r="E1523" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="J1521" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1521" s="0" t="n">
+      <c r="J1523" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1523" s="0" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1522" s="0" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G1522" s="0" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1523" s="0" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G1523" s="0" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="1524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35955,8 +35966,47 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="1528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1528" s="0" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G1528" s="0" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1529" s="0" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G1529" s="0" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1530" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1530" s="0" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1530" s="0" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1530" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1530" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1530" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1530" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="O1530" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="C174:C178">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
@@ -35991,12 +36041,12 @@
       <formula1>INDIRECT(D128)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E31 E33:E54 E57:E58 E61:E62 E65:E126 E129:E158 E1020:E1026 E1030 E1034:E1039 E1049 E1062:E1067 E1077:E1080 E1100 E1113" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E31 E33:E54 E57:E58 E61:E62 E65:E126 E129:E158 E1020:E1026 E1030 E1034:E1039 E1049 E1062:E1067 E1077:E1080 E1102 E1115" type="list">
       <formula1>INDIRECT(D61)</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1081" type="list">
-      <formula1>INDIRECT(D1140)</formula1>
+      <formula1>INDIRECT(D1142)</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
